--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -6,16 +6,116 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$16</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="103">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-nursingprescription</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2021-09-20T13:23:12+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Belgium</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>specialization</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -120,9 +220,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription</t>
   </si>
   <si>
     <t/>
@@ -360,29 +457,181 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -428,1537 +677,1519 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" hidden="true">
-      <c r="A2" t="s" s="2">
-        <v>35</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s" s="2">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI16">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI15">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="103">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T13:23:12+00:00</t>
+    <t>2021-09-20T17:40:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -550,75 +550,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>33</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:40:53+00:00</t>
+    <t>2021-09-21T08:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T08:52:01+00:00</t>
+    <t>2021-09-21T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T15:01:56+00:00</t>
+    <t>2021-09-22T07:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T07:45:14+00:00</t>
+    <t>2021-09-22T09:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T09:12:54+00:00</t>
+    <t>2021-09-22T13:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T13:43:36+00:00</t>
+    <t>2021-09-22T15:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T15:57:27+00:00</t>
+    <t>2021-09-23T11:40:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T11:40:39+00:00</t>
+    <t>2021-09-23T13:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T13:45:12+00:00</t>
+    <t>2021-09-23T14:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T14:45:21+00:00</t>
+    <t>2021-09-23T15:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:34:19+00:00</t>
+    <t>2021-09-24T07:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T07:01:44+00:00</t>
+    <t>2021-09-24T07:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T07:40:05+00:00</t>
+    <t>2021-09-24T08:26:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T08:26:22+00:00</t>
+    <t>2021-09-24T11:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T11:35:02+00:00</t>
+    <t>2021-09-24T14:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T14:58:19+00:00</t>
+    <t>2021-10-06T12:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:45:34+00:00</t>
+    <t>2021-10-06T12:46:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:46:26+00:00</t>
+    <t>2021-10-07T14:16:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T14:16:54+00:00</t>
+    <t>2021-10-07T15:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T15:34:09+00:00</t>
+    <t>2021-10-08T06:35:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T06:35:20+00:00</t>
+    <t>2021-10-15T15:30:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-15T15:30:39+00:00</t>
+    <t>2021-10-18T11:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T11:47:25+00:00</t>
+    <t>2021-10-19T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T12:13:26+00:00</t>
+    <t>2021-10-19T12:28:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T12:28:21+00:00</t>
+    <t>2021-10-19T13:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T13:42:10+00:00</t>
+    <t>2021-10-19T15:13:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T15:13:29+00:00</t>
+    <t>2021-10-21T11:58:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T11:58:09+00:00</t>
+    <t>2021-10-29T12:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="103">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:52:32+00:00</t>
+    <t>2021-10-07T15:14:36+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -244,6 +247,9 @@
 </t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>BeNursingPrescription.phoneAvailablityPrescriber</t>
   </si>
   <si>
@@ -254,7 +260,7 @@
     <t>BeNursingPrescription.phoneAvailablityPrescriber.contactPoint</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {ContactPoint}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -270,7 +276,7 @@
     <t>BeNursingPrescription.phoneAvailablityPrescriber.availability.weekDay</t>
   </si>
   <si>
-    <t xml:space="preserve">string {string}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -280,17 +286,14 @@
     <t>BeNursingPrescription.feedbackAsked.timingFeedback</t>
   </si>
   <si>
-    <t xml:space="preserve">code {code}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
-    <t>during|end</t>
-  </si>
-  <si>
     <t>BeNursingPrescription.signature</t>
   </si>
   <si>
-    <t xml:space="preserve">Signature {Signature}
+    <t xml:space="preserve">Signature
 </t>
   </si>
   <si>
@@ -300,13 +303,10 @@
     <t>What is this?</t>
   </si>
   <si>
-    <t>stamp|identification</t>
-  </si>
-  <si>
     <t>BeNursingPrescription.mainNursingCare</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {CodeableConcept}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -637,7 +637,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -681,6 +681,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -789,6 +790,9 @@
       <c r="AI1" t="s" s="1">
         <v>68</v>
       </c>
+      <c r="AJ1" t="s" s="1">
+        <v>69</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -796,1116 +800,1194 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="L4" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="L10" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="R11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L13" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -1914,23 +1996,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>95</v>
@@ -1944,65 +2026,68 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2011,23 +2096,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>95</v>
@@ -2041,65 +2126,68 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2108,23 +2196,23 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>95</v>
@@ -2132,69 +2220,74 @@
       <c r="K16" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -72,7 +72,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="173">
   <si>
     <t>Property</t>
   </si>
@@ -102,7 +102,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-referralprescription</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -234,29 +234,251 @@
     <t>*</t>
   </si>
   <si>
+    <t>Logical model describing the model for the prescription referral. This draft is used in the HL7 Belgian workgroup for referral.</t>
+  </si>
+  <si>
     <t>Base</t>
   </si>
   <si>
-    <t>BeNursingPrescription.BeReferralPrescription</t>
+    <t>BeNursingPrescription.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.identifier</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.status</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-referralprescription
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.phoneAvailablityPrescriber</t>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.reasonCurrentStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason current status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.reasonCurrentStatus</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.authoredOn</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.co-prescriber</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>The co-prescriber party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.co-prescriber.co-prescriberSubstitute</t>
+  </si>
+  <si>
+    <t>NIHDI of co prescriber substitute party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriberSubstitute</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>Status of co prescribing status (to sign, signed or refused)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.patient</t>
+  </si>
+  <si>
+    <t>The SSIN of the person for which the referral is prescribed.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.patient</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.originalRequest</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.originalRequest</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.reason</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.reason</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.validityPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validityPeriod</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.executionPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.executionPeriod</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.prescribedService</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescribedService</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Additional text notes about the request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.note</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intent</t>
+  </si>
+  <si>
+    <t>Proposal, Prolongation, Prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intent</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.phoneAvailablityPrescriber</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>BeNursingPrescription.phoneAvailablityPrescriber.contactPoint</t>
   </si>
   <si>
@@ -286,10 +508,6 @@
     <t>BeNursingPrescription.feedbackAsked.timingFeedback</t>
   </si>
   <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
     <t>BeNursingPrescription.signature</t>
   </si>
   <si>
@@ -304,10 +522,6 @@
   </si>
   <si>
     <t>BeNursingPrescription.mainNursingCare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>e.g. woundcare, medication administartion, compression therapy,....</t>
@@ -637,7 +851,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -656,7 +870,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.9609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="139.328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -670,7 +884,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -822,7 +1036,9 @@
         <v>70</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -872,7 +1088,7 @@
         <v>70</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>71</v>
@@ -892,7 +1108,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -900,10 +1116,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>70</v>
@@ -972,13 +1188,13 @@
         <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>70</v>
@@ -992,7 +1208,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1000,10 +1216,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>70</v>
@@ -1015,13 +1231,13 @@
         <v>70</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1048,13 +1264,11 @@
         <v>70</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="X4" s="2"/>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="Z4" t="s" s="2">
         <v>70</v>
@@ -1072,13 +1286,13 @@
         <v>70</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>70</v>
@@ -1092,7 +1306,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1100,10 +1314,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>70</v>
@@ -1115,13 +1329,13 @@
         <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1172,13 +1386,13 @@
         <v>70</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>70</v>
@@ -1192,7 +1406,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1200,10 +1414,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>70</v>
@@ -1215,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1272,13 +1486,13 @@
         <v>70</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>70</v>
@@ -1292,7 +1506,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1300,10 +1514,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>70</v>
@@ -1315,13 +1529,13 @@
         <v>70</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1372,13 +1586,13 @@
         <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>70</v>
@@ -1392,7 +1606,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1403,7 +1617,7 @@
         <v>71</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>70</v>
@@ -1415,13 +1629,13 @@
         <v>70</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1472,13 +1686,13 @@
         <v>70</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>70</v>
@@ -1492,7 +1706,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1500,10 +1714,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>70</v>
@@ -1515,13 +1729,13 @@
         <v>70</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1572,13 +1786,13 @@
         <v>70</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>70</v>
@@ -1592,7 +1806,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1603,7 +1817,7 @@
         <v>71</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>70</v>
@@ -1615,13 +1829,13 @@
         <v>70</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1672,13 +1886,13 @@
         <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>70</v>
@@ -1692,7 +1906,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1700,10 +1914,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>70</v>
@@ -1715,13 +1929,13 @@
         <v>70</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1772,13 +1986,13 @@
         <v>70</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>70</v>
@@ -1792,7 +2006,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1800,10 +2014,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>70</v>
@@ -1815,13 +2029,13 @@
         <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1872,13 +2086,13 @@
         <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>70</v>
@@ -1892,7 +2106,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1903,7 +2117,7 @@
         <v>71</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>70</v>
@@ -1915,13 +2129,13 @@
         <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1972,13 +2186,13 @@
         <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>70</v>
@@ -1992,7 +2206,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2000,10 +2214,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>70</v>
@@ -2018,10 +2232,10 @@
         <v>95</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2072,13 +2286,13 @@
         <v>70</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>70</v>
@@ -2092,7 +2306,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2115,13 +2329,13 @@
         <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2172,7 +2386,7 @@
         <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>71</v>
@@ -2192,7 +2406,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2218,10 +2432,10 @@
         <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2272,7 +2486,7 @@
         <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>71</v>
@@ -2287,6 +2501,2006 @@
         <v>70</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="176">
   <si>
     <t>Property</t>
   </si>
@@ -240,7 +240,89 @@
     <t>Base</t>
   </si>
   <si>
-    <t>BeNursingPrescription.identifier</t>
+    <t>BeNursingPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>The co-prescriber party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.co-prescriber.co-prescriberType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Type of the practitioner</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriberType</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>Status of co prescribing status (to sign, signed or refused)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.patient</t>
+  </si>
+  <si>
+    <t>The SSIN of the person for which the referral is prescribed.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.patient</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.prescriptionNumber</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -250,205 +332,132 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
-    <t>BeReferralPrescription.identifier</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.status</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
+    <t>BeReferralPrescription.prescriptionNumber</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Current status</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.reasonCurrentStatus</t>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedProvider.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.status</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.statusReason</t>
+  </si>
+  <si>
     <t>Reason current status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.reasonCurrentStatus</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.authoredOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this prescription was created</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.authoredOn</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>The prescribing healthcare party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Information about co prescribers</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.co-prescriber.co-prescriber</t>
-  </si>
-  <si>
-    <t>The co-prescriber party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.co-prescriber.co-prescriberSubstitute</t>
-  </si>
-  <si>
-    <t>NIHDI of co prescriber substitute party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriberSubstitute</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.co-prescriber.status</t>
-  </si>
-  <si>
-    <t>Status of co prescribing status (to sign, signed or refused)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.status</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.patient</t>
-  </si>
-  <si>
-    <t>The SSIN of the person for which the referral is prescribed.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.patient</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.originalRequest</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.originalRequest</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.reason</t>
-  </si>
-  <si>
-    <t>The problem (code or reference) that is the main reason for this prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.reason</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedProvider.discipline</t>
-  </si>
-  <si>
-    <t>The required discipline of the provider party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.validityPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validityPeriod</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.executionPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.executionPeriod</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.prescribedService</t>
-  </si>
-  <si>
-    <t>What is prescribed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescribedService</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.resultReceiver</t>
+    <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
     <t>BeNursingPrescription.note</t>
@@ -851,7 +860,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1116,10 +1125,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>70</v>
@@ -1131,13 +1140,13 @@
         <v>70</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1188,13 +1197,13 @@
         <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>70</v>
@@ -1208,7 +1217,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1216,10 +1225,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>70</v>
@@ -1264,35 +1273,37 @@
         <v>70</v>
       </c>
       <c r="W4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AF4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>70</v>
@@ -1306,7 +1317,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1314,10 +1325,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>70</v>
@@ -1329,13 +1340,13 @@
         <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1386,13 +1397,13 @@
         <v>70</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>70</v>
@@ -1406,7 +1417,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1414,10 +1425,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>70</v>
@@ -1429,13 +1440,13 @@
         <v>70</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1486,13 +1497,13 @@
         <v>70</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>70</v>
@@ -1506,7 +1517,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1514,10 +1525,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>70</v>
@@ -1529,13 +1540,13 @@
         <v>70</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1586,13 +1597,13 @@
         <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>70</v>
@@ -1606,7 +1617,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1617,7 +1628,7 @@
         <v>71</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>70</v>
@@ -1629,13 +1640,13 @@
         <v>70</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1686,13 +1697,13 @@
         <v>70</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>70</v>
@@ -1706,7 +1717,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1714,10 +1725,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>70</v>
@@ -1729,13 +1740,13 @@
         <v>70</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1786,13 +1797,13 @@
         <v>70</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>70</v>
@@ -1806,7 +1817,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1817,7 +1828,7 @@
         <v>71</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>70</v>
@@ -1829,13 +1840,13 @@
         <v>70</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1886,13 +1897,13 @@
         <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>70</v>
@@ -1906,7 +1917,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1914,10 +1925,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>70</v>
@@ -1932,10 +1943,10 @@
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1986,13 +1997,13 @@
         <v>70</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>70</v>
@@ -2006,7 +2017,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2014,10 +2025,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>70</v>
@@ -2029,13 +2040,13 @@
         <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2086,13 +2097,13 @@
         <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>70</v>
@@ -2106,7 +2117,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2117,7 +2128,7 @@
         <v>71</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>70</v>
@@ -2129,13 +2140,13 @@
         <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2186,13 +2197,13 @@
         <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>70</v>
@@ -2206,7 +2217,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2217,7 +2228,7 @@
         <v>71</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>70</v>
@@ -2229,13 +2240,13 @@
         <v>70</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2286,13 +2297,13 @@
         <v>70</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>70</v>
@@ -2306,7 +2317,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2329,13 +2340,13 @@
         <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2386,7 +2397,7 @@
         <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>71</v>
@@ -2406,7 +2417,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2429,13 +2440,13 @@
         <v>70</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2486,7 +2497,7 @@
         <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>71</v>
@@ -2506,7 +2517,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2514,10 +2525,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>70</v>
@@ -2529,13 +2540,13 @@
         <v>70</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2586,13 +2597,13 @@
         <v>70</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>70</v>
@@ -2606,7 +2617,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2614,10 +2625,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>70</v>
@@ -2629,13 +2640,13 @@
         <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2686,13 +2697,13 @@
         <v>70</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>70</v>
@@ -2706,7 +2717,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2717,7 +2728,7 @@
         <v>71</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>70</v>
@@ -2729,13 +2740,13 @@
         <v>70</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2786,13 +2797,13 @@
         <v>70</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>70</v>
@@ -2806,7 +2817,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2814,10 +2825,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>70</v>
@@ -2829,13 +2840,13 @@
         <v>70</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2886,13 +2897,13 @@
         <v>70</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>70</v>
@@ -2906,7 +2917,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2914,10 +2925,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>70</v>
@@ -2929,13 +2940,13 @@
         <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2962,13 +2973,11 @@
         <v>70</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>70</v>
@@ -2989,10 +2998,10 @@
         <v>142</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>70</v>
@@ -3017,7 +3026,7 @@
         <v>71</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>70</v>
@@ -3029,13 +3038,13 @@
         <v>70</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3086,13 +3095,13 @@
         <v>70</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>70</v>
@@ -3106,7 +3115,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3114,10 +3123,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>70</v>
@@ -3129,7 +3138,7 @@
         <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>148</v>
@@ -3189,10 +3198,10 @@
         <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>70</v>
@@ -3214,10 +3223,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>70</v>
@@ -3229,7 +3238,7 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>151</v>
@@ -3286,13 +3295,13 @@
         <v>70</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>70</v>
@@ -3306,7 +3315,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3317,7 +3326,7 @@
         <v>71</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>70</v>
@@ -3329,13 +3338,13 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3386,13 +3395,13 @@
         <v>70</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>70</v>
@@ -3406,7 +3415,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3429,13 +3438,13 @@
         <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3486,7 +3495,7 @@
         <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>71</v>
@@ -3506,7 +3515,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3517,7 +3526,7 @@
         <v>71</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>70</v>
@@ -3529,13 +3538,13 @@
         <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3586,13 +3595,13 @@
         <v>70</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>70</v>
@@ -3606,7 +3615,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3617,7 +3626,7 @@
         <v>71</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>70</v>
@@ -3629,13 +3638,13 @@
         <v>70</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3686,13 +3695,13 @@
         <v>70</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>70</v>
@@ -3706,7 +3715,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3714,10 +3723,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>70</v>
@@ -3729,13 +3738,13 @@
         <v>70</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3786,13 +3795,13 @@
         <v>70</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>70</v>
@@ -3806,7 +3815,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3814,10 +3823,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>70</v>
@@ -3829,13 +3838,13 @@
         <v>70</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3886,13 +3895,13 @@
         <v>70</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>70</v>
@@ -3906,7 +3915,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3914,10 +3923,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>70</v>
@@ -3929,13 +3938,13 @@
         <v>70</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3986,13 +3995,13 @@
         <v>70</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>70</v>
@@ -4006,7 +4015,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4014,10 +4023,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>70</v>
@@ -4029,13 +4038,13 @@
         <v>70</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4086,13 +4095,13 @@
         <v>70</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>70</v>
@@ -4106,7 +4115,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4117,7 +4126,7 @@
         <v>71</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>70</v>
@@ -4129,13 +4138,13 @@
         <v>70</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4186,13 +4195,13 @@
         <v>70</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>70</v>
@@ -4206,7 +4215,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4214,10 +4223,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>70</v>
@@ -4229,10 +4238,10 @@
         <v>70</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>167</v>
@@ -4286,13 +4295,13 @@
         <v>70</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>70</v>
@@ -4314,10 +4323,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>70</v>
@@ -4329,7 +4338,7 @@
         <v>70</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>169</v>
@@ -4389,10 +4398,10 @@
         <v>168</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>70</v>
@@ -4429,13 +4438,13 @@
         <v>70</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>172</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4501,6 +4510,106 @@
         <v>70</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="179">
   <si>
     <t>Property</t>
   </si>
@@ -439,7 +439,7 @@
     <t>BeNursingPrescription.status</t>
   </si>
   <si>
-    <t>Current status</t>
+    <t>Status of the requisition</t>
   </si>
   <si>
     <t>required</t>
@@ -449,6 +449,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.clinicalStatus</t>
+  </si>
+  <si>
+    <t>Status of the execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.clinicalStatus</t>
   </si>
   <si>
     <t>BeNursingPrescription.statusReason</t>
@@ -860,7 +869,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3038,7 +3047,7 @@
         <v>70</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>144</v>
@@ -3138,13 +3147,13 @@
         <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3195,7 +3204,7 @@
         <v>70</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>71</v>
@@ -3215,7 +3224,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3223,7 +3232,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3238,7 +3247,7 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>151</v>
@@ -3298,7 +3307,7 @@
         <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3323,7 +3332,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>76</v>
@@ -3338,7 +3347,7 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>154</v>
@@ -3395,10 +3404,10 @@
         <v>70</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3415,7 +3424,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3426,7 +3435,7 @@
         <v>71</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>70</v>
@@ -3438,13 +3447,13 @@
         <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3495,13 +3504,13 @@
         <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>70</v>
@@ -3515,7 +3524,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3538,13 +3547,13 @@
         <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3595,7 +3604,7 @@
         <v>70</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>71</v>
@@ -3615,7 +3624,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3626,7 +3635,7 @@
         <v>71</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>70</v>
@@ -3641,10 +3650,10 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3695,13 +3704,13 @@
         <v>70</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>70</v>
@@ -3715,7 +3724,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3741,10 +3750,10 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3795,7 +3804,7 @@
         <v>70</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>71</v>
@@ -3815,7 +3824,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3823,7 +3832,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>76</v>
@@ -3838,13 +3847,13 @@
         <v>70</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3895,10 +3904,10 @@
         <v>70</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -3915,7 +3924,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3923,7 +3932,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>76</v>
@@ -3938,13 +3947,13 @@
         <v>70</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3995,10 +4004,10 @@
         <v>70</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4015,7 +4024,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4023,7 +4032,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>76</v>
@@ -4038,13 +4047,13 @@
         <v>70</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4095,10 +4104,10 @@
         <v>70</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4115,7 +4124,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4123,7 +4132,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>76</v>
@@ -4138,13 +4147,13 @@
         <v>70</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4195,10 +4204,10 @@
         <v>70</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4215,7 +4224,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4238,13 +4247,13 @@
         <v>70</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4295,7 +4304,7 @@
         <v>70</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>71</v>
@@ -4315,7 +4324,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4323,7 +4332,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>76</v>
@@ -4338,10 +4347,10 @@
         <v>70</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>170</v>
@@ -4395,10 +4404,10 @@
         <v>70</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -4423,10 +4432,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>70</v>
@@ -4498,10 +4507,10 @@
         <v>171</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>70</v>
@@ -4544,7 +4553,7 @@
         <v>175</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4610,6 +4619,106 @@
         <v>70</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="168">
   <si>
     <t>Property</t>
   </si>
@@ -427,6 +427,15 @@
     <t>BeReferralPrescription.problemCode</t>
   </si>
   <si>
+    <t>BeNursingPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>Care Set Problem</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.supportingInfo</t>
+  </si>
+  <si>
     <t>BeNursingPrescription.resultReceiver</t>
   </si>
   <si>
@@ -439,7 +448,7 @@
     <t>BeNursingPrescription.status</t>
   </si>
   <si>
-    <t>Status of the requisition</t>
+    <t>Current status</t>
   </si>
   <si>
     <t>required</t>
@@ -451,15 +460,6 @@
     <t>BeReferralPrescription.status</t>
   </si>
   <si>
-    <t>BeNursingPrescription.clinicalStatus</t>
-  </si>
-  <si>
-    <t>Status of the execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.clinicalStatus</t>
-  </si>
-  <si>
     <t>BeNursingPrescription.statusReason</t>
   </si>
   <si>
@@ -467,6 +467,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodySite</t>
   </si>
   <si>
     <t>BeNursingPrescription.note</t>
@@ -491,76 +500,32 @@
     <t>BeReferralPrescription.intent</t>
   </si>
   <si>
-    <t>BeNursingPrescription.phoneAvailablityPrescriber</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.phoneAvailablityPrescriber.contactPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
+    <t>BeNursingPrescription.serviceRequestNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
-    <t>BeNursingPrescription.phoneAvailablityPrescriber.availability</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.phoneAvailablityPrescriber.availability.untilHour</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.phoneAvailablityPrescriber.availability.fromHour</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.phoneAvailablityPrescriber.availability.weekDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.feedbackAsked</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.feedbackAsked.timingFeedback</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signature
-</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.stampOrIdentification</t>
-  </si>
-  <si>
-    <t>What is this?</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.mainNursingCare</t>
-  </si>
-  <si>
-    <t>e.g. woundcare, medication administartion, compression therapy,....</t>
-  </si>
-  <si>
-    <t>A high level code to describe the nursing care</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.detailedCare</t>
-  </si>
-  <si>
-    <t>e.g. burncare, injection of medication,...</t>
-  </si>
-  <si>
-    <t>Detailed code describing the nursing care demanded</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.bodySite</t>
-  </si>
-  <si>
-    <t>When needed bodySite SHALL be given</t>
+    <t>number of sessions prescribed</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.serviceRequestFrequency</t>
+  </si>
+  <si>
+    <t>frequency of the treatment</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.serviceRequestDayPeriod</t>
+  </si>
+  <si>
+    <t>period of the day on which the treatment must take place</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.route</t>
+  </si>
+  <si>
+    <t>administration route of the treatment</t>
   </si>
 </sst>
 </file>
@@ -869,7 +834,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ38"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -878,7 +843,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.2734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -908,7 +873,7 @@
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="66.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -1837,7 +1802,7 @@
         <v>71</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>70</v>
@@ -1912,7 +1877,7 @@
         <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>70</v>
@@ -1937,7 +1902,7 @@
         <v>71</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>70</v>
@@ -2012,7 +1977,7 @@
         <v>71</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>70</v>
@@ -2734,10 +2699,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>70</v>
@@ -2809,10 +2774,10 @@
         <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>70</v>
@@ -2837,7 +2802,7 @@
         <v>71</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>70</v>
@@ -2912,7 +2877,7 @@
         <v>71</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>70</v>
@@ -2934,10 +2899,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>70</v>
@@ -2949,7 +2914,7 @@
         <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>139</v>
@@ -2982,35 +2947,37 @@
         <v>70</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>70</v>
@@ -3024,7 +2991,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3050,10 +3017,10 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3080,13 +3047,11 @@
         <v>70</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>70</v>
@@ -3235,7 +3200,7 @@
         <v>71</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>70</v>
@@ -3247,13 +3212,13 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3304,13 +3269,13 @@
         <v>70</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>70</v>
@@ -3324,7 +3289,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3332,10 +3297,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>70</v>
@@ -3347,7 +3312,7 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>154</v>
@@ -3407,10 +3372,10 @@
         <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>70</v>
@@ -3432,7 +3397,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3447,7 +3412,7 @@
         <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>157</v>
@@ -3504,10 +3469,10 @@
         <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3524,7 +3489,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3535,7 +3500,7 @@
         <v>71</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>70</v>
@@ -3547,13 +3512,13 @@
         <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3604,13 +3569,13 @@
         <v>70</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>70</v>
@@ -3624,7 +3589,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3635,7 +3600,7 @@
         <v>71</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>70</v>
@@ -3647,13 +3612,13 @@
         <v>70</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3704,13 +3669,13 @@
         <v>70</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>70</v>
@@ -3724,7 +3689,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3735,7 +3700,7 @@
         <v>71</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>70</v>
@@ -3747,13 +3712,13 @@
         <v>70</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3804,13 +3769,13 @@
         <v>70</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>70</v>
@@ -3824,7 +3789,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3847,13 +3812,13 @@
         <v>70</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3904,7 +3869,7 @@
         <v>70</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>71</v>
@@ -3919,806 +3884,6 @@
         <v>70</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-nursingprescription</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-model-nursingprescription</t>
   </si>
   <si>
     <t>Version</t>
@@ -102,7 +102,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-referralprescription</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-model-referralprescription</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="169">
   <si>
     <t>Property</t>
   </si>
@@ -439,7 +439,11 @@
     <t>BeNursingPrescription.resultReceiver</t>
   </si>
   <si>
-    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
   </si>
   <si>
     <t>BeReferralPrescription.resultReceiver</t>
@@ -2902,7 +2906,7 @@
         <v>71</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>70</v>
@@ -2914,13 +2918,13 @@
         <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2971,13 +2975,13 @@
         <v>70</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>70</v>
@@ -2991,7 +2995,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3017,10 +3021,10 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3047,11 +3051,11 @@
         <v>70</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>70</v>
@@ -3069,7 +3073,7 @@
         <v>70</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>71</v>
@@ -3089,7 +3093,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3115,10 +3119,10 @@
         <v>126</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3169,7 +3173,7 @@
         <v>70</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>71</v>
@@ -3189,7 +3193,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3215,10 +3219,10 @@
         <v>126</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3269,7 +3273,7 @@
         <v>70</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>71</v>
@@ -3289,7 +3293,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3312,13 +3316,13 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3369,7 +3373,7 @@
         <v>70</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>71</v>
@@ -3389,7 +3393,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3415,10 +3419,10 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3469,7 +3473,7 @@
         <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -3489,7 +3493,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3512,13 +3516,13 @@
         <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3569,7 +3573,7 @@
         <v>70</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>71</v>
@@ -3589,7 +3593,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3615,10 +3619,10 @@
         <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3669,7 +3673,7 @@
         <v>70</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>71</v>
@@ -3689,7 +3693,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3715,10 +3719,10 @@
         <v>126</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3769,7 +3773,7 @@
         <v>70</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>71</v>
@@ -3789,7 +3793,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3815,10 +3819,10 @@
         <v>126</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3869,7 +3873,7 @@
         <v>70</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>71</v>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="197">
   <si>
     <t>Property</t>
   </si>
@@ -36,67 +36,70 @@
     <t>Name</t>
   </si>
   <si>
+    <t>BeModelNursingPrescription</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2021-10-07T15:14:36+02:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Belgium</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>BeNursingPrescription</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2021-10-07T15:14:36+02:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>HL7 Belgium</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>logical</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Base Definition</t>
@@ -335,6 +338,37 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
+    <t>BeNursingPrescription.ppsNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Proposal Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.ppsNumber</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.ppsRejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Reason for not following the PPS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.ppsRejectionReason</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.requisition</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to. The type of bundle can be indicated in the type of the identifier</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requisition</t>
+  </si>
+  <si>
     <t>BeNursingPrescription.basedOn</t>
   </si>
   <si>
@@ -378,25 +412,25 @@
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
   </si>
   <si>
-    <t>BeNursingPrescription.intendedProvider</t>
+    <t>BeNursingPrescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedProvider.provider</t>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -406,7 +440,25 @@
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.toBePerformedAfter</t>
+  </si>
+  <si>
+    <t>The current prescription should be performed after this one</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.toBePerformedAfter</t>
   </si>
   <si>
     <t>BeNursingPrescription.serviceRequested</t>
@@ -473,20 +525,52 @@
     <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
-    <t>BeNursingPrescription.bodySite</t>
+    <t>BeNursingPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>Status of the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>Reason treatment status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodySite</t>
+    <t>BeReferralPrescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>Side of the body</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>BeNursingPrescription.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
@@ -804,31 +888,31 @@
         <v>27</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +922,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -887,1041 +971,1041 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>107</v>
@@ -1929,68 +2013,68 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1999,23 +2083,23 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>110</v>
@@ -2029,68 +2113,68 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -2099,26 +2183,26 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>114</v>
@@ -2129,68 +2213,68 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -2199,1696 +2283,2596 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="AF22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -347,7 +347,7 @@
     <t>BeReferralPrescription.ppsNumber</t>
   </si>
   <si>
-    <t>BeNursingPrescription.ppsRejectionReason</t>
+    <t>BeNursingPrescription.ppsDenialReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
@@ -357,7 +357,7 @@
     <t>Reason for not following the PPS suggestion</t>
   </si>
   <si>
-    <t>BeReferralPrescription.ppsRejectionReason</t>
+    <t>BeReferralPrescription.ppsDenialReason</t>
   </si>
   <si>
     <t>BeNursingPrescription.requisition</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="200">
   <si>
     <t>Property</t>
   </si>
@@ -450,6 +450,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>Reference to an organization that will add the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.organization</t>
   </si>
   <si>
     <t>BeNursingPrescription.toBePerformedAfter</t>
@@ -922,7 +931,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -931,7 +940,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.2734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.30078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -961,7 +970,7 @@
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.5390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -3187,7 +3196,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>77</v>
@@ -3202,7 +3211,7 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>147</v>
@@ -3262,7 +3271,7 @@
         <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3302,7 +3311,7 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>150</v>
@@ -3387,7 +3396,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>77</v>
@@ -3462,7 +3471,7 @@
         <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3502,13 +3511,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3559,7 +3568,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -3579,7 +3588,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3602,7 +3611,7 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>160</v>
@@ -3635,29 +3644,31 @@
         <v>71</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="X27" s="2"/>
-      <c r="Y27" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -3677,7 +3688,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3700,13 +3711,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3733,13 +3744,11 @@
         <v>71</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>71</v>
@@ -3988,7 +3997,7 @@
         <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>71</v>
@@ -4000,7 +4009,7 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>174</v>
@@ -4063,7 +4072,7 @@
         <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>71</v>
@@ -4088,7 +4097,7 @@
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4100,7 +4109,7 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>177</v>
@@ -4163,7 +4172,7 @@
         <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>71</v>
@@ -4288,7 +4297,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4300,7 +4309,7 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>183</v>
@@ -4363,7 +4372,7 @@
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -4385,10 +4394,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4400,7 +4409,7 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>186</v>
@@ -4460,10 +4469,10 @@
         <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -4485,7 +4494,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>77</v>
@@ -4500,13 +4509,13 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="L36" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4557,10 +4566,10 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -4600,13 +4609,13 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4677,7 +4686,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4688,7 +4697,7 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4703,10 +4712,10 @@
         <v>137</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4757,13 +4766,13 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
@@ -4777,7 +4786,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4788,7 +4797,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -4803,10 +4812,10 @@
         <v>137</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4857,13 +4866,13 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
@@ -4872,6 +4881,106 @@
         <v>71</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -347,7 +347,7 @@
     <t>BeReferralPrescription.ppsNumber</t>
   </si>
   <si>
-    <t>BeNursingPrescription.ppsDenialReason</t>
+    <t>BeNursingPrescription.ppsRejectionReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
@@ -357,7 +357,7 @@
     <t>Reason for not following the PPS suggestion</t>
   </si>
   <si>
-    <t>BeReferralPrescription.ppsDenialReason</t>
+    <t>BeReferralPrescription.ppsRejectionReason</t>
   </si>
   <si>
     <t>BeNursingPrescription.requisition</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="203">
   <si>
     <t>Property</t>
   </si>
@@ -259,11 +259,20 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BeNursingPrescription.prescriber</t>
+    <t>BeNursingPrescription.recorder</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
+  </si>
+  <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recorder</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.prescriber</t>
   </si>
   <si>
     <t>The prescribing healthcare party</t>
@@ -931,7 +940,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -950,7 +959,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="148.01953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1396,10 +1405,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1411,13 +1420,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1468,13 +1477,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1488,7 +1497,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1499,7 +1508,7 @@
         <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1511,7 +1520,7 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>90</v>
@@ -1574,7 +1583,7 @@
         <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1611,13 +1620,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1668,7 +1677,7 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
@@ -1688,7 +1697,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1711,7 +1720,7 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>97</v>
@@ -1796,7 +1805,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>77</v>
@@ -1811,7 +1820,7 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>100</v>
@@ -1871,7 +1880,7 @@
         <v>101</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1896,7 +1905,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>77</v>
@@ -1911,13 +1920,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1968,10 +1977,10 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -1988,7 +1997,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2011,7 +2020,7 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>107</v>
@@ -2111,13 +2120,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2168,7 +2177,7 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
@@ -2188,7 +2197,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2211,7 +2220,7 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>114</v>
@@ -2299,7 +2308,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2311,13 +2320,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2368,13 +2377,13 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2388,7 +2397,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2396,10 +2405,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2411,13 +2420,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2468,13 +2477,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2488,7 +2497,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2496,7 +2505,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>77</v>
@@ -2511,7 +2520,7 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>125</v>
@@ -2571,7 +2580,7 @@
         <v>126</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -2611,7 +2620,7 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>128</v>
@@ -2699,7 +2708,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2711,7 +2720,7 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>131</v>
@@ -2774,7 +2783,7 @@
         <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2811,7 +2820,7 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>134</v>
@@ -2896,10 +2905,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -2911,13 +2920,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2968,13 +2977,13 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -2988,7 +2997,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3011,7 +3020,7 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>141</v>
@@ -3096,7 +3105,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>77</v>
@@ -3111,7 +3120,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>144</v>
@@ -3171,7 +3180,7 @@
         <v>145</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3296,7 +3305,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>77</v>
@@ -3311,7 +3320,7 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>150</v>
@@ -3371,7 +3380,7 @@
         <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3411,7 +3420,7 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>153</v>
@@ -3496,7 +3505,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>77</v>
@@ -3571,7 +3580,7 @@
         <v>157</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -3611,13 +3620,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="L27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3668,7 +3677,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -3688,7 +3697,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3711,7 +3720,7 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>163</v>
@@ -3744,29 +3753,31 @@
         <v>71</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="X28" s="2"/>
-      <c r="Y28" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -3786,7 +3797,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3809,13 +3820,13 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3842,13 +3853,11 @@
         <v>71</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>71</v>
@@ -3909,7 +3918,7 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>171</v>
@@ -4009,7 +4018,7 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>174</v>
@@ -4097,7 +4106,7 @@
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4109,7 +4118,7 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>177</v>
@@ -4172,7 +4181,7 @@
         <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>71</v>
@@ -4197,7 +4206,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4209,7 +4218,7 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>180</v>
@@ -4272,7 +4281,7 @@
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -4309,7 +4318,7 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>183</v>
@@ -4397,7 +4406,7 @@
         <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4409,7 +4418,7 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>186</v>
@@ -4472,7 +4481,7 @@
         <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -4494,10 +4503,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -4509,7 +4518,7 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>189</v>
@@ -4569,10 +4578,10 @@
         <v>190</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
@@ -4594,7 +4603,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>77</v>
@@ -4609,13 +4618,13 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="L37" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4666,10 +4675,10 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -4709,13 +4718,13 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4786,7 +4795,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4797,7 +4806,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -4809,13 +4818,13 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4866,13 +4875,13 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
@@ -4886,7 +4895,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4897,7 +4906,7 @@
         <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -4909,13 +4918,13 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4966,13 +4975,13 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>71</v>
@@ -4981,6 +4990,106 @@
         <v>71</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="206">
   <si>
     <t>Property</t>
   </si>
@@ -419,6 +419,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
   </si>
   <si>
     <t>BeNursingPrescription.intendedPerformer</t>
@@ -940,7 +949,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2808,7 +2817,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2820,7 +2829,7 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>134</v>
@@ -2883,7 +2892,7 @@
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -2920,7 +2929,7 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>137</v>
@@ -3005,10 +3014,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -3020,13 +3029,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3077,13 +3086,13 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -3097,7 +3106,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3120,7 +3129,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>144</v>
@@ -3205,7 +3214,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>77</v>
@@ -3220,7 +3229,7 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>147</v>
@@ -3280,7 +3289,7 @@
         <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3405,7 +3414,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>77</v>
@@ -3420,7 +3429,7 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>153</v>
@@ -3480,7 +3489,7 @@
         <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3520,7 +3529,7 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>156</v>
@@ -3605,7 +3614,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>77</v>
@@ -3680,7 +3689,7 @@
         <v>160</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -3720,13 +3729,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3777,7 +3786,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -3797,7 +3806,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3820,7 +3829,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>166</v>
@@ -3853,29 +3862,31 @@
         <v>71</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="X29" s="2"/>
-      <c r="Y29" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -3895,7 +3906,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3918,13 +3929,13 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3951,13 +3962,11 @@
         <v>71</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>71</v>
@@ -4018,7 +4027,7 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>174</v>
@@ -4118,7 +4127,7 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>177</v>
@@ -4206,7 +4215,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4218,7 +4227,7 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>180</v>
@@ -4281,7 +4290,7 @@
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -4306,7 +4315,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4318,7 +4327,7 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>183</v>
@@ -4381,7 +4390,7 @@
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -4418,7 +4427,7 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>186</v>
@@ -4506,7 +4515,7 @@
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -4518,7 +4527,7 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>189</v>
@@ -4581,7 +4590,7 @@
         <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
@@ -4603,10 +4612,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4618,7 +4627,7 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>192</v>
@@ -4678,10 +4687,10 @@
         <v>193</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4703,7 +4712,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>77</v>
@@ -4718,13 +4727,13 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="L38" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4775,10 +4784,10 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -4818,13 +4827,13 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4895,7 +4904,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4906,7 +4915,7 @@
         <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -4918,13 +4927,13 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4975,13 +4984,13 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>71</v>
@@ -4995,7 +5004,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5006,7 +5015,7 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5018,13 +5027,13 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5075,13 +5084,13 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
@@ -5090,6 +5099,106 @@
         <v>71</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="209">
   <si>
     <t>Property</t>
   </si>
@@ -372,10 +372,27 @@
     <t>BeNursingPrescription.requisition</t>
   </si>
   <si>
-    <t>An identifier for the bundle this prescription belongs to. The type of bundle can be indicated in the type of the identifier</t>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to.</t>
   </si>
   <si>
     <t>BeReferralPrescription.requisition</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.requistionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The type of bundle can be indicated in the type of the identifier</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requistionType</t>
   </si>
   <si>
     <t>BeNursingPrescription.basedOn</t>
@@ -451,10 +468,6 @@
     <t>BeNursingPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>The required discipline of the provider party</t>
   </si>
   <si>
@@ -616,10 +629,6 @@
   </si>
   <si>
     <t>BeNursingPrescription.serviceRequestNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
   </si>
   <si>
     <t>number of sessions prescribed</t>
@@ -949,7 +958,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2329,14 +2338,12 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2386,7 +2393,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
@@ -2406,7 +2413,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2417,7 +2424,7 @@
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2429,14 +2436,12 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2486,13 +2491,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2506,7 +2511,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2514,10 +2519,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2529,13 +2534,13 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>125</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2586,13 +2591,13 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
@@ -2606,7 +2611,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2614,7 +2619,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>77</v>
@@ -2629,13 +2634,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2686,10 +2691,10 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -2706,7 +2711,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2729,13 +2734,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2786,7 +2791,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -2806,7 +2811,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2832,10 +2837,10 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2886,7 +2891,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -2906,7 +2911,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2917,7 +2922,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -2929,13 +2934,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2986,13 +2991,13 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -3006,7 +3011,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3029,13 +3034,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3086,7 +3091,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -3106,7 +3111,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3114,10 +3119,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3129,13 +3134,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3186,13 +3191,13 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3206,7 +3211,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3229,13 +3234,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3286,7 +3291,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3306,7 +3311,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3314,7 +3319,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>77</v>
@@ -3329,13 +3334,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3386,10 +3391,10 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3406,7 +3411,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3432,10 +3437,10 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3486,7 +3491,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -3506,7 +3511,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3514,7 +3519,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>77</v>
@@ -3529,13 +3534,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3586,10 +3591,10 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -3606,7 +3611,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3629,13 +3634,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3686,7 +3691,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -3706,7 +3711,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3714,7 +3719,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>77</v>
@@ -3732,10 +3737,10 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3786,10 +3791,10 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -3806,7 +3811,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3829,7 +3834,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>166</v>
@@ -3929,13 +3934,13 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3962,29 +3967,31 @@
         <v>71</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4004,7 +4011,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4027,13 +4034,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4060,13 +4067,11 @@
         <v>71</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>71</v>
@@ -4084,7 +4089,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4104,7 +4109,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4127,13 +4132,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4184,7 +4189,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4204,7 +4209,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4227,13 +4232,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4284,7 +4289,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4304,7 +4309,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4315,7 +4320,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4327,13 +4332,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4384,13 +4389,13 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -4404,7 +4409,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4415,7 +4420,7 @@
         <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4427,13 +4432,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4484,13 +4489,13 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -4504,7 +4509,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4527,13 +4532,13 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4584,7 +4589,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -4604,7 +4609,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4615,7 +4620,7 @@
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4627,13 +4632,13 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4684,13 +4689,13 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4704,7 +4709,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4712,10 +4717,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4727,13 +4732,13 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4784,13 +4789,13 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
@@ -4804,7 +4809,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4812,7 +4817,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>77</v>
@@ -4827,7 +4832,7 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>198</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>199</v>
@@ -4884,10 +4889,10 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -4904,7 +4909,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4927,13 +4932,13 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4984,7 +4989,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5004,7 +5009,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5015,7 +5020,7 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5027,13 +5032,13 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5084,13 +5089,13 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
@@ -5104,7 +5109,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5115,7 +5120,7 @@
         <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>71</v>
@@ -5127,13 +5132,13 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5184,13 +5189,13 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>71</v>
@@ -5199,6 +5204,106 @@
         <v>71</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -347,26 +347,26 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
-    <t>BeNursingPrescription.ppsNumber</t>
-  </si>
-  <si>
-    <t>An identifier for the Prescription Proposal Support</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.ppsNumber</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.ppsRejectionReason</t>
+    <t>BeNursingPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Search Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.pssRejectionReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
-    <t>Reason for not following the PPS suggestion</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.ppsRejectionReason</t>
+    <t>Reason for not following the PSS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssRejectionReason</t>
   </si>
   <si>
     <t>BeNursingPrescription.requisition</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -967,42 +967,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.01953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.5390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>77</v>
@@ -1798,7 +1798,7 @@
         <v>98</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -2023,7 +2023,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>77</v>
@@ -2098,7 +2098,7 @@
         <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -3019,7 +3019,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>73</v>
@@ -3094,7 +3094,7 @@
         <v>143</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -3122,7 +3122,7 @@
         <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3197,7 +3197,7 @@
         <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -3319,7 +3319,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>77</v>
@@ -3394,7 +3394,7 @@
         <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="169">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BeModelNursingPrescription</t>
+    <t>BeNursingPrescription</t>
   </si>
   <si>
     <t>Title</t>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription</t>
   </si>
   <si>
     <t>Base Definition</t>
@@ -259,22 +256,13 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BeNursingPrescription.recorder</t>
+    <t>BeNursingPrescription.prescriber</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
-    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recorder</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.prescriber</t>
-  </si>
-  <si>
     <t>The prescribing healthcare party</t>
   </si>
   <si>
@@ -347,288 +335,180 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
-    <t>BeNursingPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>An identifier for the Prescription Search Support</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.pssRejectionReason</t>
+    <t>BeNursingPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>Care Set Problem</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.status</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>Reason current status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.note</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
-    <t>Reason for not following the PSS suggestion</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssRejectionReason</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.requisition</t>
+    <t>Additional text notes about the request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.note</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intent</t>
+  </si>
+  <si>
+    <t>Proposal, Prolongation, Prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intent</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.serviceRequestNumber</t>
   </si>
   <si>
     <t xml:space="preserve">positiveInt
 </t>
-  </si>
-  <si>
-    <t>An identifier for the bundle this prescription belongs to.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.requisition</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.requistionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>The type of bundle can be indicated in the type of the identifier</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.requistionType</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>The latest moment to end this treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>The prescription must have left the draft status before</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>The required discipline of the provider party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>Start and enddate for the particular provider</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>Reference to an organization that will add the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.toBePerformedAfter</t>
-  </si>
-  <si>
-    <t>The current prescription should be performed after this one</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.toBePerformedAfter</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>What is prescribed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>The problem (code or reference) that is the main reason for this prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>Care Set Problem</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.status</t>
-  </si>
-  <si>
-    <t>Current status</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>Reason current status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>Status of the treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>Reason treatment status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>Place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>Anatomical place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>Side of the body</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.note</t>
-  </si>
-  <si>
-    <t>Additional text notes about the request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.note</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intent</t>
-  </si>
-  <si>
-    <t>Proposal, Prolongation, Prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intent</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.serviceRequestNumber</t>
   </si>
   <si>
     <t>number of sessions prescribed</t>
@@ -924,31 +804,31 @@
         <v>27</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +838,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -967,7 +847,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.3046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.2734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -977,7 +857,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="139.328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -997,7 +877,7 @@
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -1007,438 +887,438 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>69</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="G2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="AG2" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="F3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="L3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K4" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="L4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>86</v>
@@ -1449,68 +1329,68 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1519,126 +1399,126 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>93</v>
@@ -1649,68 +1529,68 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1719,226 +1599,226 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>103</v>
@@ -1949,68 +1829,68 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -2019,29 +1899,29 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>107</v>
@@ -2049,68 +1929,68 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -2119,126 +1999,126 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>114</v>
@@ -2249,68 +2129,68 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2319,894 +2199,896 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J14" t="s" s="2">
+      <c r="K14" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L14" s="2"/>
+      <c r="L14" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="G15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L15" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AH15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="G16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG16" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AH16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -3215,26 +3097,26 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>148</v>
@@ -3245,68 +3127,68 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -3315,26 +3197,26 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="G24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>151</v>
@@ -3345,68 +3227,68 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG24" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AH24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -3415,398 +3297,398 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="G25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG25" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AH25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -3815,26 +3697,26 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="F29" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="G29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>166</v>
@@ -3845,1466 +3727,168 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG29" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AH29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X31" s="2"/>
-      <c r="Y31" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="212">
   <si>
     <t>Property</t>
   </si>
@@ -36,67 +36,70 @@
     <t>Name</t>
   </si>
   <si>
+    <t>BeModelNursingPrescription</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2021-10-07T15:14:36+02:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Belgium</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>BeNursingPrescription</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2021-10-07T15:14:36+02:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>HL7 Belgium</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>logical</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Base Definition</t>
@@ -256,17 +259,39 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BeNursingPrescription.prescriber</t>
+    <t>BeNursingPrescription.recorder</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recorder</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.prescriber</t>
+  </si>
+  <si>
     <t>The prescribing healthcare party</t>
   </si>
   <si>
     <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of co-prescribers that must sign the prescription to activate it</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriberNumber</t>
   </si>
   <si>
     <t>BeNursingPrescription.co-prescriber</t>
@@ -335,6 +360,50 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
+    <t>BeNursingPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Search Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Reason for not following the PSS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.requisition</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requisition</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.requistionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The type of bundle can be indicated in the type of the identifier</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requistionType</t>
+  </si>
+  <si>
     <t>BeNursingPrescription.basedOn</t>
   </si>
   <si>
@@ -378,35 +447,67 @@
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
   </si>
   <si>
-    <t>BeNursingPrescription.intendedProvider</t>
+    <t>BeNursingPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedProvider.provider</t>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedProvider.discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>Reference to an organization that will add the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.toBePerformedAfter</t>
+  </si>
+  <si>
+    <t>The current prescription should be performed after this one</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.toBePerformedAfter</t>
   </si>
   <si>
     <t>BeNursingPrescription.serviceRequested</t>
@@ -473,22 +574,54 @@
     <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
-    <t>BeNursingPrescription.bodySite</t>
+    <t>BeNursingPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>Status of the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>Reason treatment status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodySite</t>
+    <t>BeReferralPrescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>Side of the body</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>BeNursingPrescription.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
@@ -505,10 +638,6 @@
   </si>
   <si>
     <t>BeNursingPrescription.serviceRequestNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
   </si>
   <si>
     <t>number of sessions prescribed</t>
@@ -804,31 +933,31 @@
         <v>27</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +967,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -847,7 +976,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.2734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.3046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -857,7 +986,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -877,7 +1006,7 @@
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -887,438 +1016,438 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>86</v>
@@ -1329,68 +1458,68 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1399,529 +1528,529 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>107</v>
@@ -1929,68 +2058,68 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1999,23 +2128,23 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>110</v>
@@ -2029,68 +2158,68 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -2099,23 +2228,23 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>110</v>
@@ -2129,68 +2258,68 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -2199,896 +2328,894 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -3097,26 +3224,26 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>148</v>
@@ -3127,68 +3254,68 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
@@ -3197,26 +3324,26 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>151</v>
@@ -3227,68 +3354,68 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -3297,398 +3424,398 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
@@ -3697,26 +3824,26 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>166</v>
@@ -3727,168 +3854,1566 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X32" s="2"/>
+      <c r="Y32" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="215">
   <si>
     <t>Property</t>
   </si>
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.co-prescriber.required</t>
+  </si>
+  <si>
+    <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.required</t>
   </si>
   <si>
     <t>BeNursingPrescription.patient</t>
@@ -967,7 +976,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -986,7 +995,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2047,7 +2056,7 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>107</v>
@@ -2147,13 +2156,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2204,7 +2213,7 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -2224,7 +2233,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2232,7 +2241,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>77</v>
@@ -2247,7 +2256,7 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>114</v>
@@ -2307,7 +2316,7 @@
         <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2347,13 +2356,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2404,7 +2413,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
@@ -2424,7 +2433,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2447,12 +2456,14 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2545,10 +2556,10 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2600,7 +2611,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -2620,7 +2631,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2631,7 +2642,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2643,14 +2654,12 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>129</v>
-      </c>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2700,13 +2709,13 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2720,7 +2729,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2728,10 +2737,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2743,13 +2752,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2800,13 +2809,13 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2820,7 +2829,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2828,7 +2837,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>77</v>
@@ -2843,7 +2852,7 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>136</v>
@@ -2903,7 +2912,7 @@
         <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -2943,7 +2952,7 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>139</v>
@@ -3128,10 +3137,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3143,7 +3152,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>145</v>
@@ -3203,10 +3212,10 @@
         <v>146</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3228,10 +3237,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3243,7 +3252,7 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>148</v>
@@ -3303,10 +3312,10 @@
         <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
@@ -3328,7 +3337,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>77</v>
@@ -3343,7 +3352,7 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>151</v>
@@ -3403,7 +3412,7 @@
         <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3428,7 +3437,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>77</v>
@@ -3443,7 +3452,7 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>154</v>
@@ -3503,7 +3512,7 @@
         <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3543,7 +3552,7 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>157</v>
@@ -3728,7 +3737,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>77</v>
@@ -3743,7 +3752,7 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>163</v>
@@ -3803,7 +3812,7 @@
         <v>164</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -3843,7 +3852,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>166</v>
@@ -3928,7 +3937,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>77</v>
@@ -4003,7 +4012,7 @@
         <v>170</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4043,13 +4052,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4100,7 +4109,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4120,7 +4129,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4143,7 +4152,7 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>176</v>
@@ -4176,29 +4185,31 @@
         <v>71</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="X32" s="2"/>
-      <c r="Y32" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4218,7 +4229,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4241,13 +4252,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4274,13 +4285,11 @@
         <v>71</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>71</v>
@@ -4341,7 +4350,7 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>184</v>
@@ -4441,7 +4450,7 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>187</v>
@@ -4529,7 +4538,7 @@
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -4541,7 +4550,7 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>190</v>
@@ -4604,7 +4613,7 @@
         <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
@@ -4629,7 +4638,7 @@
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4641,7 +4650,7 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>193</v>
@@ -4704,7 +4713,7 @@
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4741,7 +4750,7 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>196</v>
@@ -4829,7 +4838,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -4841,7 +4850,7 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>199</v>
@@ -4904,7 +4913,7 @@
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
@@ -4926,10 +4935,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -4941,7 +4950,7 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>202</v>
@@ -5001,10 +5010,10 @@
         <v>203</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>71</v>
@@ -5026,7 +5035,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>77</v>
@@ -5041,7 +5050,7 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>205</v>
@@ -5098,10 +5107,10 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -5118,7 +5127,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5141,13 +5150,13 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5198,7 +5207,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -5218,7 +5227,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5229,7 +5238,7 @@
         <v>72</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>71</v>
@@ -5241,13 +5250,13 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5298,13 +5307,13 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>71</v>
@@ -5318,7 +5327,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5329,7 +5338,7 @@
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>71</v>
@@ -5341,13 +5350,13 @@
         <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5398,13 +5407,13 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>71</v>
@@ -5413,6 +5422,106 @@
         <v>71</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="218">
   <si>
     <t>Property</t>
   </si>
@@ -508,6 +508,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>Period in which the caregiver executes the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
   </si>
   <si>
     <t>BeNursingPrescription.toBePerformedAfter</t>
@@ -976,7 +985,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -985,7 +994,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.3046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1015,7 +1024,7 @@
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -3752,7 +3761,7 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>163</v>
@@ -3837,7 +3846,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>77</v>
@@ -3852,7 +3861,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>166</v>
@@ -3912,7 +3921,7 @@
         <v>167</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -3952,7 +3961,7 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>169</v>
@@ -4037,7 +4046,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>77</v>
@@ -4112,7 +4121,7 @@
         <v>173</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4152,13 +4161,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4209,7 +4218,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4229,7 +4238,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4252,7 +4261,7 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>179</v>
@@ -4285,29 +4294,31 @@
         <v>71</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="X33" s="2"/>
-      <c r="Y33" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4327,7 +4338,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4350,13 +4361,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4383,13 +4394,11 @@
         <v>71</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>71</v>
@@ -4638,7 +4647,7 @@
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4650,7 +4659,7 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>193</v>
@@ -4713,7 +4722,7 @@
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4738,7 +4747,7 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4750,7 +4759,7 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>196</v>
@@ -4813,7 +4822,7 @@
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
@@ -4938,7 +4947,7 @@
         <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -4950,7 +4959,7 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>202</v>
@@ -5013,7 +5022,7 @@
         <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>71</v>
@@ -5035,10 +5044,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5050,7 +5059,7 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>205</v>
@@ -5110,10 +5119,10 @@
         <v>206</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
@@ -5135,7 +5144,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>77</v>
@@ -5150,7 +5159,7 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>208</v>
@@ -5207,10 +5216,10 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -5227,7 +5236,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5250,13 +5259,13 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5307,7 +5316,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -5327,7 +5336,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5338,7 +5347,7 @@
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>71</v>
@@ -5353,10 +5362,10 @@
         <v>127</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5407,13 +5416,13 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>71</v>
@@ -5427,7 +5436,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5438,7 +5447,7 @@
         <v>72</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>71</v>
@@ -5453,10 +5462,10 @@
         <v>127</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5507,13 +5516,13 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>71</v>
@@ -5522,6 +5531,106 @@
         <v>71</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -4046,7 +4046,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>77</v>
@@ -4121,7 +4121,7 @@
         <v>173</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -4246,7 +4246,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>77</v>
@@ -4321,7 +4321,7 @@
         <v>180</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -4346,7 +4346,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>77</v>
@@ -4419,7 +4419,7 @@
         <v>185</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="221">
   <si>
     <t>Property</t>
   </si>
@@ -391,101 +391,92 @@
     <t>BeReferralPrescription.pssRejectionReason</t>
   </si>
   <si>
-    <t>BeNursingPrescription.requisition</t>
+    <t>BeNursingPrescription.groupIdentifier</t>
   </si>
   <si>
     <t>An identifier for the bundle this prescription belongs to.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.requisition</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.requistionType</t>
+    <t>BeReferralPrescription.groupIdentifier</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>The type of bundle can be indicated in the type of the identifier</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.requistionType</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>The latest moment to end this treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>The prescription must have left the draft status before</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
     <t>The required discipline of the provider party</t>
   </si>
   <si>
@@ -519,13 +510,22 @@
     <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
   </si>
   <si>
-    <t>BeNursingPrescription.toBePerformedAfter</t>
-  </si>
-  <si>
-    <t>The current prescription should be performed after this one</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.toBePerformedAfter</t>
+    <t>BeNursingPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>Status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.statusReason</t>
+  </si>
+  <si>
+    <t>The reason of the status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
   </si>
   <si>
     <t>BeNursingPrescription.serviceRequested</t>
@@ -535,6 +535,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.serviceRequestedDetail</t>
+  </si>
+  <si>
+    <t>More detailed specification of the prescribed act</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequestedDetail</t>
   </si>
   <si>
     <t>BeNursingPrescription.problemCode</t>
@@ -646,13 +655,13 @@
     <t>BeReferralPrescription.note</t>
   </si>
   <si>
-    <t>BeNursingPrescription.intent</t>
+    <t>BeNursingPrescription.prescriptionType</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intent</t>
+    <t>BeReferralPrescription.prescriptionType</t>
   </si>
   <si>
     <t>BeNursingPrescription.serviceRequestNumber</t>
@@ -985,7 +994,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2651,7 +2660,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2663,12 +2672,14 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2724,7 +2735,7 @@
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2746,10 +2757,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2761,10 +2772,10 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>132</v>
@@ -2821,10 +2832,10 @@
         <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2846,7 +2857,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>77</v>
@@ -2861,13 +2872,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2918,10 +2929,10 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -2938,7 +2949,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2961,13 +2972,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3018,7 +3029,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3038,7 +3049,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3064,10 +3075,10 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3118,7 +3129,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -3138,7 +3149,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3146,10 +3157,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3161,13 +3172,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3218,13 +3229,13 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3238,7 +3249,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3246,10 +3257,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3261,13 +3272,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3318,13 +3329,13 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
@@ -3338,7 +3349,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3346,7 +3357,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>77</v>
@@ -3361,7 +3372,7 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>151</v>
@@ -3421,7 +3432,7 @@
         <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3446,7 +3457,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>77</v>
@@ -3461,7 +3472,7 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>154</v>
@@ -3521,7 +3532,7 @@
         <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3561,7 +3572,7 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>157</v>
@@ -3661,7 +3672,7 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>160</v>
@@ -3761,7 +3772,7 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>163</v>
@@ -3861,7 +3872,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>166</v>
@@ -3961,7 +3972,7 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>169</v>
@@ -4061,7 +4072,7 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>172</v>
@@ -4246,7 +4257,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>77</v>
@@ -4261,13 +4272,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="L33" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4318,10 +4329,10 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -4338,7 +4349,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4361,7 +4372,7 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>182</v>
@@ -4394,29 +4405,31 @@
         <v>71</v>
       </c>
       <c r="W34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="X34" s="2"/>
-      <c r="Y34" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -4436,7 +4449,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4444,7 +4457,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>77</v>
@@ -4459,13 +4472,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4492,13 +4505,11 @@
         <v>71</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>71</v>
@@ -4519,7 +4530,7 @@
         <v>188</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -4559,7 +4570,7 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>190</v>
@@ -4659,7 +4670,7 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>193</v>
@@ -4747,7 +4758,7 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4759,7 +4770,7 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>196</v>
@@ -4822,7 +4833,7 @@
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
@@ -4847,7 +4858,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -4859,7 +4870,7 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>199</v>
@@ -4922,7 +4933,7 @@
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
@@ -4959,7 +4970,7 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>202</v>
@@ -5047,7 +5058,7 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5059,7 +5070,7 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>205</v>
@@ -5122,7 +5133,7 @@
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
@@ -5144,10 +5155,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>71</v>
@@ -5159,7 +5170,7 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>208</v>
@@ -5219,10 +5230,10 @@
         <v>209</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>71</v>
@@ -5244,7 +5255,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>77</v>
@@ -5259,7 +5270,7 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>211</v>
@@ -5316,10 +5327,10 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -5336,7 +5347,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5359,13 +5370,13 @@
         <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5416,7 +5427,7 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -5436,7 +5447,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5447,7 +5458,7 @@
         <v>72</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>71</v>
@@ -5459,13 +5470,13 @@
         <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5516,13 +5527,13 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>71</v>
@@ -5536,7 +5547,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5547,7 +5558,7 @@
         <v>72</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>71</v>
@@ -5559,13 +5570,13 @@
         <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5616,13 +5627,13 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>71</v>
@@ -5631,6 +5642,106 @@
         <v>71</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="240">
   <si>
     <t>Property</t>
   </si>
@@ -237,16 +237,79 @@
     <t>*</t>
   </si>
   <si>
+    <t>Base for all elements</t>
+  </si>
+  <si>
     <t>Logical model describing the model for the prescription referral. This draft is used in the HL7 Belgian workgroup for referral.</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BeNursingPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
@@ -994,7 +1057,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ47"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1005,7 +1068,7 @@
   <cols>
     <col min="1" max="1" width="54.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1030,7 +1093,7 @@
     <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1178,9 +1241,11 @@
       <c r="J2" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1231,7 +1296,7 @@
         <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>72</v>
@@ -1240,18 +1305,18 @@
         <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1259,10 +1324,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>71</v>
@@ -1274,13 +1339,13 @@
         <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1331,13 +1396,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1346,23 +1411,23 @@
         <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>71</v>
@@ -1374,15 +1439,17 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>71</v>
@@ -1419,39 +1486,39 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1459,10 +1526,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1474,13 +1541,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1531,13 +1598,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1551,7 +1618,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1559,10 +1626,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1574,13 +1641,13 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1631,13 +1698,13 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1651,7 +1718,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1659,10 +1726,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1674,13 +1741,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1731,13 +1798,13 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
@@ -1751,7 +1818,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1759,10 +1826,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1774,13 +1841,13 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1831,13 +1898,13 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
@@ -1851,7 +1918,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1859,10 +1926,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>71</v>
@@ -1874,13 +1941,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1931,13 +1998,13 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
@@ -1951,7 +2018,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1962,7 +2029,7 @@
         <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>71</v>
@@ -1974,13 +2041,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2031,13 +2098,13 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>71</v>
@@ -2051,7 +2118,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2059,10 +2126,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -2074,13 +2141,13 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2131,13 +2198,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -2151,7 +2218,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2159,10 +2226,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>71</v>
@@ -2174,13 +2241,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2231,13 +2298,13 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
@@ -2251,7 +2318,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2259,10 +2326,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -2274,13 +2341,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2331,13 +2398,13 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
@@ -2351,7 +2418,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2359,10 +2426,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2374,13 +2441,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2431,13 +2498,13 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2451,7 +2518,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2459,10 +2526,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2474,13 +2541,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2531,13 +2598,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2551,7 +2618,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2562,7 +2629,7 @@
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2574,12 +2641,14 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L16" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2629,13 +2698,13 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
@@ -2649,7 +2718,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2660,7 +2729,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2672,13 +2741,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2729,13 +2798,13 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2749,7 +2818,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2757,10 +2826,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2772,14 +2841,12 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2829,13 +2896,13 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2849,7 +2916,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2860,7 +2927,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2872,13 +2939,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2929,13 +2996,13 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -2949,7 +3016,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2957,10 +3024,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -2972,13 +3039,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3029,13 +3096,13 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -3049,7 +3116,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3060,7 +3127,7 @@
         <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -3072,13 +3139,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3129,13 +3196,13 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -3149,7 +3216,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3157,10 +3224,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3172,13 +3239,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3229,13 +3296,13 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3249,7 +3316,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3260,7 +3327,7 @@
         <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3272,13 +3339,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3329,13 +3396,13 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
@@ -3349,7 +3416,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3357,10 +3424,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3372,13 +3439,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3429,13 +3496,13 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3449,7 +3516,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3460,7 +3527,7 @@
         <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>71</v>
@@ -3472,13 +3539,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3529,13 +3596,13 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -3549,7 +3616,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3557,10 +3624,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>71</v>
@@ -3572,13 +3639,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3629,13 +3696,13 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>71</v>
@@ -3649,7 +3716,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3660,7 +3727,7 @@
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>71</v>
@@ -3672,13 +3739,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3729,13 +3796,13 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>71</v>
@@ -3749,7 +3816,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3760,7 +3827,7 @@
         <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>71</v>
@@ -3772,13 +3839,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3829,13 +3896,13 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>71</v>
@@ -3849,7 +3916,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3860,7 +3927,7 @@
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>71</v>
@@ -3875,10 +3942,10 @@
         <v>150</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3929,13 +3996,13 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
@@ -3949,7 +4016,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3957,10 +4024,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
@@ -3972,13 +4039,13 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4029,13 +4096,13 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
@@ -4049,7 +4116,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4060,7 +4127,7 @@
         <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>71</v>
@@ -4072,13 +4139,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4129,13 +4196,13 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>71</v>
@@ -4149,7 +4216,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4157,10 +4224,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4172,13 +4239,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4229,13 +4296,13 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>71</v>
@@ -4249,7 +4316,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4260,7 +4327,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4272,13 +4339,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4329,13 +4396,13 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -4349,7 +4416,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4357,10 +4424,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4372,13 +4439,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4429,13 +4496,13 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -4449,7 +4516,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4457,10 +4524,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4472,13 +4539,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4505,11 +4572,13 @@
         <v>71</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>71</v>
@@ -4527,13 +4596,13 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -4547,7 +4616,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4555,10 +4624,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -4570,13 +4639,13 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4627,13 +4696,13 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
@@ -4647,7 +4716,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4655,10 +4724,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4670,13 +4739,13 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4703,13 +4772,11 @@
         <v>71</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>71</v>
@@ -4727,13 +4794,13 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4747,7 +4814,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4758,7 +4825,7 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4770,13 +4837,13 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4827,13 +4894,13 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
@@ -4847,7 +4914,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4858,7 +4925,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -4870,13 +4937,13 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4927,13 +4994,13 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
@@ -4947,7 +5014,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4958,7 +5025,7 @@
         <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -4970,13 +5037,13 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5027,13 +5094,13 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>71</v>
@@ -5047,7 +5114,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5058,7 +5125,7 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5070,13 +5137,13 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5127,13 +5194,13 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
@@ -5147,7 +5214,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5158,7 +5225,7 @@
         <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>71</v>
@@ -5170,13 +5237,13 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5227,13 +5294,13 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>71</v>
@@ -5247,7 +5314,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5255,10 +5322,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>71</v>
@@ -5270,13 +5337,13 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5327,13 +5394,13 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>71</v>
@@ -5347,7 +5414,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5358,7 +5425,7 @@
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>71</v>
@@ -5370,13 +5437,13 @@
         <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5427,13 +5494,13 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>71</v>
@@ -5447,7 +5514,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5455,10 +5522,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>71</v>
@@ -5470,13 +5537,13 @@
         <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5527,13 +5594,13 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>71</v>
@@ -5547,7 +5614,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5558,7 +5625,7 @@
         <v>72</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>71</v>
@@ -5570,13 +5637,13 @@
         <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5627,13 +5694,13 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>71</v>
@@ -5647,7 +5714,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5658,7 +5725,7 @@
         <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>71</v>
@@ -5670,13 +5737,13 @@
         <v>71</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5727,13 +5794,13 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>71</v>
@@ -5742,6 +5809,206 @@
         <v>71</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="257">
   <si>
     <t>Property</t>
   </si>
@@ -370,6 +370,42 @@
     <t>BeReferralPrescription.co-prescriber</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.co-prescriber.id</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.co-prescriber.extension</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.co-prescriber.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>BeNursingPrescription.co-prescriber.co-prescriber</t>
   </si>
   <si>
@@ -524,6 +560,15 @@
     <t>BeReferralPrescription.intendedPerformer</t>
   </si>
   <si>
+    <t>BeNursingPrescription.intendedPerformer.id</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.extension</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.modifierExtension</t>
+  </si>
+  <si>
     <t>BeNursingPrescription.intendedPerformer.performer</t>
   </si>
   <si>
@@ -689,6 +734,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodyLocation.id</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodyLocation.extension</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodyLocation.modifierExtension</t>
   </si>
   <si>
     <t>BeNursingPrescription.bodyLocation.bodySite</t>
@@ -1057,7 +1111,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ49"/>
+  <dimension ref="A1:AJ58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1066,9 +1120,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.48828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -2010,7 +2064,7 @@
         <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>71</v>
@@ -2018,7 +2072,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2041,13 +2095,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2098,7 +2152,7 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
@@ -2113,23 +2167,23 @@
         <v>71</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -2141,15 +2195,17 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>71</v>
@@ -2186,71 +2242,75 @@
         <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AC11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>71</v>
       </c>
@@ -2304,21 +2364,21 @@
         <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2326,7 +2386,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>80</v>
@@ -2341,13 +2401,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2398,10 +2458,10 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -2418,7 +2478,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2441,13 +2501,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2498,7 +2558,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>80</v>
@@ -2518,7 +2578,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2526,7 +2586,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>80</v>
@@ -2541,13 +2601,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2598,10 +2658,10 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -2618,7 +2678,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2626,7 +2686,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>80</v>
@@ -2641,13 +2701,13 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2698,10 +2758,10 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -2718,7 +2778,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2726,7 +2786,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>80</v>
@@ -2741,7 +2801,7 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>140</v>
@@ -2801,7 +2861,7 @@
         <v>141</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -2826,7 +2886,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>80</v>
@@ -2841,12 +2901,14 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L18" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2896,10 +2958,10 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -2916,7 +2978,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2927,7 +2989,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2939,10 +3001,10 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>147</v>
@@ -3002,7 +3064,7 @@
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -3024,7 +3086,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>80</v>
@@ -3099,7 +3161,7 @@
         <v>152</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -3139,14 +3201,12 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3227,7 +3287,7 @@
         <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3239,13 +3299,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>157</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3296,13 +3356,13 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3316,7 +3376,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3324,7 +3384,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>80</v>
@@ -3339,13 +3399,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3396,10 +3456,10 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -3416,7 +3476,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3424,10 +3484,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3439,13 +3499,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3496,13 +3556,13 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3516,7 +3576,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3539,13 +3599,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3596,7 +3656,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -3616,7 +3676,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3624,7 +3684,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>80</v>
@@ -3639,13 +3699,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3696,10 +3756,10 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -3716,7 +3776,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3724,10 +3784,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>71</v>
@@ -3739,13 +3799,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3796,19 +3856,19 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>71</v>
@@ -3816,7 +3876,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3839,13 +3899,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3896,7 +3956,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -3911,23 +3971,23 @@
         <v>71</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>71</v>
@@ -3939,15 +3999,17 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>71</v>
@@ -3984,71 +4046,75 @@
         <v>71</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>71</v>
       </c>
@@ -4096,27 +4162,27 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4139,13 +4205,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4196,7 +4262,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4216,7 +4282,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4239,13 +4305,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4296,7 +4362,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>80</v>
@@ -4316,7 +4382,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4339,13 +4405,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4396,7 +4462,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4416,7 +4482,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4442,10 +4508,10 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4496,7 +4562,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -4516,7 +4582,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4539,13 +4605,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4596,7 +4662,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -4616,7 +4682,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4624,7 +4690,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>80</v>
@@ -4639,13 +4705,13 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4696,10 +4762,10 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -4716,7 +4782,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4724,7 +4790,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>80</v>
@@ -4739,13 +4805,13 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4772,11 +4838,13 @@
         <v>71</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>206</v>
+        <v>71</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>71</v>
@@ -4794,10 +4862,10 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -4814,7 +4882,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4822,7 +4890,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>80</v>
@@ -4837,13 +4905,13 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4894,10 +4962,10 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -4914,7 +4982,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4937,13 +5005,13 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4994,7 +5062,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -5014,7 +5082,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5037,13 +5105,13 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5094,7 +5162,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5114,7 +5182,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5125,7 +5193,7 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5137,13 +5205,13 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5194,13 +5262,13 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
@@ -5214,7 +5282,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5222,7 +5290,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>80</v>
@@ -5237,13 +5305,13 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5294,10 +5362,10 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -5314,7 +5382,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5322,7 +5390,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>80</v>
@@ -5337,13 +5405,13 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5370,13 +5438,11 @@
         <v>71</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>71</v>
@@ -5394,10 +5460,10 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -5414,7 +5480,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5425,7 +5491,7 @@
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>71</v>
@@ -5437,13 +5503,13 @@
         <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5494,13 +5560,13 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>71</v>
@@ -5514,7 +5580,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5522,7 +5588,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>80</v>
@@ -5537,13 +5603,13 @@
         <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5594,10 +5660,10 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -5614,7 +5680,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5637,13 +5703,13 @@
         <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5694,7 +5760,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -5714,7 +5780,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5725,7 +5791,7 @@
         <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>71</v>
@@ -5737,13 +5803,13 @@
         <v>71</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5794,19 +5860,19 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>71</v>
@@ -5814,7 +5880,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5825,7 +5891,7 @@
         <v>72</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>71</v>
@@ -5837,13 +5903,13 @@
         <v>71</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>237</v>
+        <v>83</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5894,13 +5960,13 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>71</v>
@@ -5909,23 +5975,23 @@
         <v>71</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>71</v>
@@ -5937,15 +6003,17 @@
         <v>71</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>239</v>
+        <v>88</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>71</v>
@@ -5982,33 +6050,937 @@
         <v>71</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="L51" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="258">
   <si>
     <t>Property</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>specialization</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -1111,7 +1114,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ58"/>
+  <dimension ref="A1:AK58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1121,41 +1124,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="56.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="56.48828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.66015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.53515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1267,133 +1270,139 @@
       <c r="AJ1" t="s" s="1">
         <v>70</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>82</v>
@@ -1401,99 +1410,102 @@
       <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="B4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>88</v>
@@ -1504,598 +1516,616 @@
       <c r="M4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="N4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M6" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M7" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>116</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>82</v>
@@ -2103,99 +2133,102 @@
       <c r="L10" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>88</v>
@@ -2206,1700 +2239,1751 @@
       <c r="M11" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="N11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="B12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>125</v>
+        <v>96</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L21" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>162</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>71</v>
+        <v>116</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>82</v>
@@ -3907,99 +3991,102 @@
       <c r="L28" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>88</v>
@@ -4010,1900 +4097,1957 @@
       <c r="M29" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="N29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>122</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>125</v>
+        <v>96</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="X43" s="2"/>
-      <c r="Y43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X43" t="s" s="2">
         <v>220</v>
       </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>227</v>
+        <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>233</v>
+        <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>71</v>
+        <v>116</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>82</v>
@@ -5911,99 +6055,102 @@
       <c r="L48" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M48" s="2"/>
+      <c r="M48" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>88</v>
@@ -6014,974 +6161,1004 @@
       <c r="M49" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="N49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AB49" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>122</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>125</v>
+        <v>96</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>244</v>
+        <v>151</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>245</v>
+        <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>247</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="259">
   <si>
     <t>Property</t>
   </si>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all elements</t>
@@ -1302,13 +1306,13 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1359,7 +1363,7 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>73</v>
@@ -1368,21 +1372,21 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1393,7 +1397,7 @@
         <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>72</v>
@@ -1405,13 +1409,13 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1462,13 +1466,13 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>72</v>
@@ -1477,19 +1481,19 @@
         <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1508,16 +1512,16 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1555,19 +1559,19 @@
         <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
@@ -1579,18 +1583,18 @@
         <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1598,10 +1602,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1613,13 +1617,13 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1670,13 +1674,13 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
@@ -1690,10 +1694,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1701,10 +1705,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
@@ -1716,13 +1720,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1773,13 +1777,13 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>
@@ -1793,10 +1797,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1804,10 +1808,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1819,13 +1823,13 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1876,13 +1880,13 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
@@ -1896,10 +1900,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1907,10 +1911,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -1922,13 +1926,13 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1979,13 +1983,13 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -1999,10 +2003,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2025,13 +2029,13 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2082,7 +2086,7 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -2094,7 +2098,7 @@
         <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>72</v>
@@ -2102,10 +2106,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2116,7 +2120,7 @@
         <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>72</v>
@@ -2128,13 +2132,13 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2185,13 +2189,13 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>72</v>
@@ -2200,19 +2204,19 @@
         <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2231,16 +2235,16 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2278,19 +2282,19 @@
         <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
@@ -2302,22 +2306,22 @@
         <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2330,25 +2334,25 @@
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>72</v>
@@ -2397,7 +2401,7 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
@@ -2409,18 +2413,18 @@
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2431,7 +2435,7 @@
         <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>72</v>
@@ -2443,13 +2447,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2500,13 +2504,13 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>72</v>
@@ -2520,10 +2524,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2531,10 +2535,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>72</v>
@@ -2546,13 +2550,13 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2603,13 +2607,13 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>72</v>
@@ -2623,10 +2627,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2637,7 +2641,7 @@
         <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>72</v>
@@ -2649,13 +2653,13 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2706,13 +2710,13 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>72</v>
@@ -2726,10 +2730,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2737,10 +2741,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -2752,13 +2756,13 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2809,13 +2813,13 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>72</v>
@@ -2829,10 +2833,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2840,10 +2844,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -2855,13 +2859,13 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2912,13 +2916,13 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>72</v>
@@ -2932,10 +2936,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2943,10 +2947,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -2958,13 +2962,13 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3015,13 +3019,13 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>
@@ -3035,10 +3039,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3049,7 +3053,7 @@
         <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
@@ -3061,13 +3065,13 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3118,13 +3122,13 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>72</v>
@@ -3138,10 +3142,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3152,7 +3156,7 @@
         <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>72</v>
@@ -3164,13 +3168,13 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3221,13 +3225,13 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>72</v>
@@ -3241,10 +3245,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3255,7 +3259,7 @@
         <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
@@ -3267,10 +3271,10 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3322,13 +3326,13 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
@@ -3342,10 +3346,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3368,13 +3372,13 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3425,7 +3429,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3445,10 +3449,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3456,10 +3460,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -3471,13 +3475,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3528,13 +3532,13 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>72</v>
@@ -3548,10 +3552,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3562,7 +3566,7 @@
         <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3574,13 +3578,13 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3631,13 +3635,13 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
@@ -3651,10 +3655,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3665,7 +3669,7 @@
         <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -3677,13 +3681,13 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3734,13 +3738,13 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>72</v>
@@ -3754,10 +3758,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3768,7 +3772,7 @@
         <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -3780,13 +3784,13 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3837,13 +3841,13 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>72</v>
@@ -3857,10 +3861,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3868,7 +3872,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -3883,13 +3887,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3940,10 +3944,10 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -3952,7 +3956,7 @@
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
@@ -3960,10 +3964,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3974,7 +3978,7 @@
         <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>72</v>
@@ -3986,13 +3990,13 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4043,13 +4047,13 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>72</v>
@@ -4058,19 +4062,19 @@
         <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4089,16 +4093,16 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4136,19 +4140,19 @@
         <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -4160,22 +4164,22 @@
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4188,25 +4192,25 @@
         <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>72</v>
@@ -4255,7 +4259,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -4267,18 +4271,18 @@
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4289,7 +4293,7 @@
         <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -4301,13 +4305,13 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4358,13 +4362,13 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>72</v>
@@ -4378,10 +4382,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4389,10 +4393,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -4404,13 +4408,13 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4461,13 +4465,13 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>72</v>
@@ -4481,10 +4485,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4495,7 +4499,7 @@
         <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>72</v>
@@ -4507,13 +4511,13 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4564,13 +4568,13 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>72</v>
@@ -4584,10 +4588,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4598,7 +4602,7 @@
         <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>72</v>
@@ -4610,13 +4614,13 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4667,13 +4671,13 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>72</v>
@@ -4687,10 +4691,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4701,7 +4705,7 @@
         <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>72</v>
@@ -4713,13 +4717,13 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4770,13 +4774,13 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>72</v>
@@ -4790,10 +4794,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4804,7 +4808,7 @@
         <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>72</v>
@@ -4816,13 +4820,13 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4873,13 +4877,13 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>72</v>
@@ -4893,10 +4897,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4907,7 +4911,7 @@
         <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
@@ -4919,13 +4923,13 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4976,13 +4980,13 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>72</v>
@@ -4996,10 +5000,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5007,10 +5011,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>72</v>
@@ -5022,13 +5026,13 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5079,13 +5083,13 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>72</v>
@@ -5099,10 +5103,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5113,7 +5117,7 @@
         <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
@@ -5125,13 +5129,13 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5182,13 +5186,13 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>72</v>
@@ -5202,10 +5206,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5216,7 +5220,7 @@
         <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>72</v>
@@ -5228,13 +5232,13 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5285,13 +5289,13 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>72</v>
@@ -5305,10 +5309,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5319,7 +5323,7 @@
         <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>72</v>
@@ -5331,13 +5335,13 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5388,13 +5392,13 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>72</v>
@@ -5408,10 +5412,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5419,10 +5423,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>72</v>
@@ -5434,13 +5438,13 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5491,13 +5495,13 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>72</v>
@@ -5511,10 +5515,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5522,10 +5526,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>72</v>
@@ -5537,13 +5541,13 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5570,11 +5574,11 @@
         <v>72</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>72</v>
@@ -5592,13 +5596,13 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>72</v>
@@ -5612,10 +5616,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5626,7 +5630,7 @@
         <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>72</v>
@@ -5638,13 +5642,13 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5695,13 +5699,13 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>72</v>
@@ -5715,10 +5719,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5729,7 +5733,7 @@
         <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>72</v>
@@ -5741,13 +5745,13 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -5798,13 +5802,13 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>72</v>
@@ -5818,10 +5822,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5832,7 +5836,7 @@
         <v>73</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>72</v>
@@ -5844,13 +5848,13 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5901,13 +5905,13 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>72</v>
@@ -5921,10 +5925,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5947,13 +5951,13 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6004,7 +6008,7 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -6016,7 +6020,7 @@
         <v>72</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>72</v>
@@ -6024,10 +6028,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6038,7 +6042,7 @@
         <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>72</v>
@@ -6050,13 +6054,13 @@
         <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6107,13 +6111,13 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>72</v>
@@ -6122,19 +6126,19 @@
         <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6153,16 +6157,16 @@
         <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6200,19 +6204,19 @@
         <v>72</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -6224,22 +6228,22 @@
         <v>72</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6252,25 +6256,25 @@
         <v>72</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>72</v>
@@ -6319,7 +6323,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -6331,18 +6335,18 @@
         <v>72</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6353,7 +6357,7 @@
         <v>73</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>72</v>
@@ -6365,13 +6369,13 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6422,13 +6426,13 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>72</v>
@@ -6442,10 +6446,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6456,7 +6460,7 @@
         <v>73</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>72</v>
@@ -6468,13 +6472,13 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6525,13 +6529,13 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>72</v>
@@ -6545,10 +6549,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6571,13 +6575,13 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6628,7 +6632,7 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
@@ -6648,10 +6652,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6659,10 +6663,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>72</v>
@@ -6674,13 +6678,13 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6731,13 +6735,13 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>72</v>
@@ -6751,10 +6755,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6765,7 +6769,7 @@
         <v>73</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>72</v>
@@ -6777,13 +6781,13 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6834,13 +6838,13 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>72</v>
@@ -6854,10 +6858,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6868,7 +6872,7 @@
         <v>73</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>72</v>
@@ -6880,13 +6884,13 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -6937,13 +6941,13 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>72</v>
@@ -6957,10 +6961,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -6983,13 +6987,13 @@
         <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7040,7 +7044,7 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
@@ -7060,10 +7064,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7074,7 +7078,7 @@
         <v>73</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>72</v>
@@ -7086,13 +7090,13 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7143,13 +7147,13 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="259">
   <si>
     <t>Property</t>
   </si>
@@ -30,73 +30,76 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>BeModelNursingPrescription</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2021-10-07T15:14:36+02:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Belgium</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>BeNursingPrescription</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2021-10-07T15:14:36+02:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>HL7 Belgium</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>logical</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Base Definition</t>
@@ -241,16 +244,79 @@
 </t>
   </si>
   <si>
+    <t>Base for all elements</t>
+  </si>
+  <si>
     <t>Logical model describing the model for the prescription referral. This draft is used in the HL7 Belgian workgroup for referral.</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BeNursingPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
@@ -263,17 +329,39 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BeNursingPrescription.prescriber</t>
+    <t>BeNursingPrescription.recorder</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recorder</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.prescriber</t>
+  </si>
+  <si>
     <t>The prescribing healthcare party</t>
   </si>
   <si>
     <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of co-prescribers that must sign the prescription to activate it</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriberNumber</t>
   </si>
   <si>
     <t>BeNursingPrescription.co-prescriber</t>
@@ -296,57 +384,7 @@
     <t>BeNursingPrescription.co-prescriber.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>BeNursingPrescription.co-prescriber.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BeNursingPrescription.co-prescriber.modifierExtension</t>
@@ -406,6 +444,15 @@
     <t>BeReferralPrescription.co-prescriber.status</t>
   </si>
   <si>
+    <t>BeNursingPrescription.co-prescriber.required</t>
+  </si>
+  <si>
+    <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.required</t>
+  </si>
+  <si>
     <t>BeNursingPrescription.patient</t>
   </si>
   <si>
@@ -428,6 +475,37 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
+    <t>BeNursingPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Search Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Reason for not following the PSS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.groupIdentifier</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.groupIdentifier</t>
+  </si>
+  <si>
     <t>BeNursingPrescription.basedOn</t>
   </si>
   <si>
@@ -471,34 +549,43 @@
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
   </si>
   <si>
-    <t>BeNursingPrescription.intendedProvider</t>
+    <t>BeNursingPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedProvider.id</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedProvider.extension</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedProvider.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedProvider.provider</t>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.id</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.extension</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.modifierExtension</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -508,7 +595,52 @@
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>Reference to an organization that will add the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>Period in which the caregiver executes the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>Status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.intendedPerformer.statusReason</t>
+  </si>
+  <si>
+    <t>The reason of the status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
   </si>
   <si>
     <t>BeNursingPrescription.serviceRequested</t>
@@ -518,6 +650,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.serviceRequestedDetail</t>
+  </si>
+  <si>
+    <t>More detailed specification of the prescribed act</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequestedDetail</t>
   </si>
   <si>
     <t>BeNursingPrescription.problemCode</t>
@@ -575,42 +716,79 @@
     <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
-    <t>BeNursingPrescription.bodySite</t>
+    <t>BeNursingPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>Status of the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>Reason treatment status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodyLocation.id</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodyLocation.extension</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodyLocation.modifierExtension</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodySite</t>
+    <t>BeReferralPrescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>BeNursingPrescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>Side of the body</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>BeNursingPrescription.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
     <t>BeReferralPrescription.note</t>
   </si>
   <si>
-    <t>BeNursingPrescription.intent</t>
+    <t>BeNursingPrescription.prescriptionType</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intent</t>
+    <t>BeReferralPrescription.prescriptionType</t>
   </si>
   <si>
     <t>BeNursingPrescription.serviceRequestNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
   </si>
   <si>
     <t>number of sessions prescribed</t>
@@ -906,31 +1084,31 @@
         <v>27</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK36"/>
+  <dimension ref="A1:AK58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -949,8 +1127,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.93359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="54.93359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="56.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -980,7 +1158,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -989,1973 +1167,1977 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L2" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>111</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>71</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -2967,1750 +3149,4020 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="J21" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>71</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>196</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y43" s="2"/>
+      <c r="Z43" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-be-model-nursingprescription.xlsx
+++ b/StructureDefinition-be-model-nursingprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="255">
   <si>
     <t>Property</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>BeNursingPrescription</t>
-  </si>
-  <si>
     <t>Base Definition</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription</t>
   </si>
   <si>
     <t/>
@@ -244,26 +244,81 @@
 </t>
   </si>
   <si>
-    <t>Base for all elements</t>
-  </si>
-  <si>
     <t>Logical model describing the model for the prescription referral. This draft is used in the HL7 Belgian workgroup for referral.</t>
   </si>
   <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
+    <t>Base</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.recordedDate</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.id</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.recordedDate</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.recorder</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.prescriber</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.prescriber</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of co-prescribers that must sign the prescription to activate it</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.co-prescriber.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -279,7 +334,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>BeNursingPrescription.extension</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.co-prescriber.extension</t>
   </si>
   <si>
     <t>extensions
@@ -316,78 +374,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>BeNursingPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this prescription was created</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recorder</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>The prescribing healthcare party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Number of co-prescribers that must sign the prescription to activate it</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Information about co prescribers</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.co-prescriber.id</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.co-prescriber.extension</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.co-prescriber.modifierExtension</t>
+    <t>be-model-nursingprescription.co-prescriber.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -413,16 +400,16 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>BeNursingPrescription.co-prescriber.co-prescriber</t>
+    <t>be-model-nursingprescription.co-prescriber.co-prescriber</t>
   </si>
   <si>
     <t>The co-prescriber party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.co-prescriber.co-prescriberType</t>
+    <t>be-model-referralprescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.co-prescriber.co-prescriberType</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -432,37 +419,37 @@
     <t>Type of the practitioner</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriberType</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.co-prescriber.status</t>
+    <t>be-model-referralprescription.co-prescriber.co-prescriberType</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.co-prescriber.status</t>
   </si>
   <si>
     <t>Status of co prescribing status (to sign, signed or refused)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.status</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.co-prescriber.required</t>
+    <t>be-model-referralprescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.co-prescriber.required</t>
   </si>
   <si>
     <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.required</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.patient</t>
+    <t>be-model-referralprescription.co-prescriber.required</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.patient</t>
   </si>
   <si>
     <t>The SSIN of the person for which the referral is prescribed.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.patient</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.prescriptionNumber</t>
+    <t>be-model-referralprescription.patient</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.prescriptionNumber</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -472,19 +459,19 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriptionNumber</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.pssNumber</t>
+    <t>be-model-referralprescription.prescriptionNumber</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.pssNumber</t>
   </si>
   <si>
     <t>An identifier for the Prescription Search Support</t>
   </si>
   <si>
-    <t>BeReferralPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.pssRejectionReason</t>
+    <t>be-model-referralprescription.pssNumber</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.pssRejectionReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
@@ -494,19 +481,19 @@
     <t>Reason for not following the PSS suggestion</t>
   </si>
   <si>
-    <t>BeReferralPrescription.pssRejectionReason</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.groupIdentifier</t>
+    <t>be-model-referralprescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.groupIdentifier</t>
   </si>
   <si>
     <t>An identifier for the bundle this prescription belongs to.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.groupIdentifier</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.basedOn</t>
+    <t>be-model-referralprescription.groupIdentifier</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.basedOn</t>
   </si>
   <si>
     <t>The original request or prescription triggered this prescription</t>
@@ -515,10 +502,10 @@
     <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.validitionPeriod</t>
+    <t>be-model-referralprescription.basedOn</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.validitionPeriod</t>
   </si>
   <si>
     <t xml:space="preserve">Period
@@ -528,64 +515,64 @@
     <t>Period of validity of prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.treatmentPeriod</t>
+    <t>be-model-referralprescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.treatmentPeriod</t>
   </si>
   <si>
     <t>When this prescription is executed, available after start of execution</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.treatmentValidationEndDate</t>
+    <t>be-model-referralprescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.treatmentValidationEndDate</t>
   </si>
   <si>
     <t>The latest moment to end this treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.creationEndDate</t>
+    <t>be-model-referralprescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.creationEndDate</t>
   </si>
   <si>
     <t>The prescription must have left the draft status before</t>
   </si>
   <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer</t>
+    <t>be-model-referralprescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.id</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.extension</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.performer</t>
+    <t>be-model-referralprescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.intendedPerformer.id</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.intendedPerformer.extension</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.intendedPerformer.modifierExtension</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.discipline</t>
+    <t>be-model-referralprescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -595,91 +582,91 @@
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.period</t>
+    <t>be-model-referralprescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.intendedPerformer.period</t>
   </si>
   <si>
     <t>Start and enddate for the particular provider</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.organization</t>
+    <t>be-model-referralprescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.intendedPerformer.organization</t>
   </si>
   <si>
     <t>Reference to an organization that will add the performer</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.executionPeriod</t>
+    <t>be-model-referralprescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.intendedPerformer.executionPeriod</t>
   </si>
   <si>
     <t>Period in which the caregiver executes the treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.status</t>
+    <t>be-model-referralprescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.intendedPerformer.status</t>
   </si>
   <si>
     <t>Status of the action executed by the performer</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.status</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.intendedPerformer.statusReason</t>
+    <t>be-model-referralprescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.intendedPerformer.statusReason</t>
   </si>
   <si>
     <t>The reason of the status of the action executed by the performer</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.serviceRequested</t>
+    <t>be-model-referralprescription.intendedPerformer.statusReason</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.serviceRequested</t>
   </si>
   <si>
     <t>What is prescribed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.serviceRequestedDetail</t>
+    <t>be-model-referralprescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.serviceRequestedDetail</t>
   </si>
   <si>
     <t>More detailed specification of the prescribed act</t>
   </si>
   <si>
-    <t>BeReferralPrescription.serviceRequestedDetail</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.problemCode</t>
+    <t>be-model-referralprescription.serviceRequestedDetail</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.problemCode</t>
   </si>
   <si>
     <t>The problem (code or reference) that is the main reason for this prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.supportingInfo</t>
+    <t>be-model-referralprescription.problemCode</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.supportingInfo</t>
   </si>
   <si>
     <t>Care Set Problem</t>
   </si>
   <si>
-    <t>BeReferralPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.resultReceiver</t>
+    <t>be-model-referralprescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.resultReceiver</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -689,10 +676,10 @@
     <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
   </si>
   <si>
-    <t>BeReferralPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.status</t>
+    <t>be-model-referralprescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.status</t>
   </si>
   <si>
     <t>Current status</t>
@@ -704,109 +691,109 @@
     <t>http://hl7.org/fhir/ValueSet/request-status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.statusReason</t>
+    <t>be-model-referralprescription.status</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.statusReason</t>
   </si>
   <si>
     <t>Reason current status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.treatmentStatus</t>
+    <t>be-model-referralprescription.statusReason</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.treatmentStatus</t>
   </si>
   <si>
     <t>Status of the treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.treatmentStatusReason</t>
+    <t>be-model-referralprescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.treatmentStatusReason</t>
   </si>
   <si>
     <t>Reason treatment status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.bodyLocation</t>
+    <t>be-model-referralprescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.bodyLocation</t>
   </si>
   <si>
     <t>Place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.bodyLocation.id</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.bodyLocation.extension</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.bodyLocation.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.bodyLocation.bodySite</t>
+    <t>be-model-referralprescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.bodyLocation.id</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.bodyLocation.extension</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.bodyLocation.modifierExtension</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.bodyLocation.bodyLaterality</t>
+    <t>be-model-referralprescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>Side of the body</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.note</t>
+    <t>be-model-referralprescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.note</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.note</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.prescriptionType</t>
+    <t>be-model-referralprescription.note</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.prescriptionType</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriptionType</t>
-  </si>
-  <si>
-    <t>BeNursingPrescription.serviceRequestNumber</t>
+    <t>be-model-referralprescription.prescriptionType</t>
+  </si>
+  <si>
+    <t>be-model-nursingprescription.serviceRequestNumber</t>
   </si>
   <si>
     <t>number of sessions prescribed</t>
   </si>
   <si>
-    <t>BeNursingPrescription.serviceRequestFrequency</t>
+    <t>be-model-nursingprescription.serviceRequestFrequency</t>
   </si>
   <si>
     <t>frequency of the treatment</t>
   </si>
   <si>
-    <t>BeNursingPrescription.serviceRequestDayPeriod</t>
+    <t>be-model-nursingprescription.serviceRequestDayPeriod</t>
   </si>
   <si>
     <t>period of the day on which the treatment must take place</t>
   </si>
   <si>
-    <t>BeNursingPrescription.route</t>
+    <t>be-model-nursingprescription.route</t>
   </si>
   <si>
     <t>administration route of the treatment</t>
@@ -989,7 +976,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -1084,31 +1073,31 @@
         <v>27</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK58"/>
+  <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1127,8 +1116,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="56.48828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.27734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="63.27734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1158,7 +1147,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="61.390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1167,123 +1156,123 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>70</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1309,10 +1298,10 @@
         <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1363,7 +1352,7 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>73</v>
@@ -1372,21 +1361,21 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1394,10 +1383,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>72</v>
@@ -1409,13 +1398,13 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1466,13 +1455,13 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>72</v>
@@ -1481,26 +1470,26 @@
         <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>72</v>
@@ -1512,17 +1501,15 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>72</v>
@@ -1559,42 +1546,42 @@
         <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1602,10 +1589,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1617,13 +1604,13 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1674,13 +1661,13 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
@@ -1694,10 +1681,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1705,10 +1692,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
@@ -1720,13 +1707,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1777,13 +1764,13 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>
@@ -1797,10 +1784,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1808,10 +1795,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1823,13 +1810,13 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1880,19 +1867,19 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>72</v>
@@ -1900,10 +1887,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1911,10 +1898,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -1926,13 +1913,13 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1983,13 +1970,13 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -1998,19 +1985,19 @@
         <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2029,15 +2016,17 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>72</v>
@@ -2074,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -2098,50 +2087,54 @@
         <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P10" t="s" s="2">
         <v>72</v>
       </c>
@@ -2189,41 +2182,41 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>72</v>
@@ -2235,17 +2228,15 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>72</v>
@@ -2282,78 +2273,74 @@
         <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>72</v>
       </c>
@@ -2401,30 +2388,30 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>127</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2435,7 +2422,7 @@
         <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>72</v>
@@ -2447,13 +2434,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2504,13 +2491,13 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>72</v>
@@ -2524,10 +2511,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2535,10 +2522,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>72</v>
@@ -2550,13 +2537,13 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2607,13 +2594,13 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>72</v>
@@ -2627,10 +2614,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2638,10 +2625,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>72</v>
@@ -2653,13 +2640,13 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2710,13 +2697,13 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>72</v>
@@ -2730,10 +2717,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2741,10 +2728,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -2756,13 +2743,13 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2813,13 +2800,13 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>72</v>
@@ -2833,10 +2820,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2844,10 +2831,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -2859,13 +2846,13 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2916,13 +2903,13 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>72</v>
@@ -2936,10 +2923,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2947,10 +2934,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -2962,13 +2949,13 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3019,13 +3006,13 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>
@@ -3039,10 +3026,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3053,7 +3040,7 @@
         <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
@@ -3065,14 +3052,12 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3122,13 +3107,13 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>72</v>
@@ -3142,10 +3127,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3156,7 +3141,7 @@
         <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>72</v>
@@ -3168,13 +3153,13 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3225,13 +3210,13 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>72</v>
@@ -3245,10 +3230,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3256,10 +3241,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
@@ -3271,12 +3256,14 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3326,13 +3313,13 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
@@ -3346,10 +3333,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3360,7 +3347,7 @@
         <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>72</v>
@@ -3372,13 +3359,13 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3429,13 +3416,13 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>72</v>
@@ -3449,10 +3436,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3460,10 +3447,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -3475,13 +3462,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3532,13 +3519,13 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>72</v>
@@ -3552,10 +3539,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3566,7 +3553,7 @@
         <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3578,13 +3565,13 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3635,13 +3622,13 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
@@ -3655,10 +3642,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3666,10 +3653,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -3681,13 +3668,13 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3738,19 +3725,19 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>72</v>
@@ -3758,10 +3745,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3772,7 +3759,7 @@
         <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -3784,13 +3771,13 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3841,13 +3828,13 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>72</v>
@@ -3856,7 +3843,7 @@
         <v>72</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
@@ -3868,11 +3855,11 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -3887,15 +3874,17 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>72</v>
@@ -3932,22 +3921,22 @@
         <v>72</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -3956,50 +3945,54 @@
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>72</v>
       </c>
@@ -4047,41 +4040,41 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -4093,17 +4086,15 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>72</v>
@@ -4140,34 +4131,34 @@
         <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
@@ -4179,39 +4170,35 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>72</v>
       </c>
@@ -4259,30 +4246,30 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>127</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4293,7 +4280,7 @@
         <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -4305,13 +4292,13 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4362,13 +4349,13 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>72</v>
@@ -4382,10 +4369,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4393,10 +4380,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -4408,13 +4395,13 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4465,13 +4452,13 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>72</v>
@@ -4485,10 +4472,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4499,7 +4486,7 @@
         <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>72</v>
@@ -4511,13 +4498,13 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4568,13 +4555,13 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>72</v>
@@ -4588,10 +4575,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4602,7 +4589,7 @@
         <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>72</v>
@@ -4614,13 +4601,13 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4671,13 +4658,13 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>72</v>
@@ -4691,10 +4678,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4705,7 +4692,7 @@
         <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>72</v>
@@ -4717,13 +4704,13 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4774,13 +4761,13 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>72</v>
@@ -4794,10 +4781,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4805,10 +4792,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>72</v>
@@ -4820,13 +4807,13 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4877,13 +4864,13 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>72</v>
@@ -4897,10 +4884,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4911,7 +4898,7 @@
         <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
@@ -4923,13 +4910,13 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4980,13 +4967,13 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>72</v>
@@ -5000,10 +4987,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5011,10 +4998,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>72</v>
@@ -5026,13 +5013,13 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5083,13 +5070,13 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>72</v>
@@ -5103,10 +5090,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5117,7 +5104,7 @@
         <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
@@ -5129,13 +5116,13 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5186,13 +5173,13 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>72</v>
@@ -5206,10 +5193,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5217,10 +5204,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>72</v>
@@ -5232,13 +5219,13 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5289,13 +5276,13 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>72</v>
@@ -5309,10 +5296,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5320,10 +5307,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>72</v>
@@ -5335,13 +5322,13 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5368,13 +5355,11 @@
         <v>72</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>72</v>
@@ -5392,13 +5377,13 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>72</v>
@@ -5412,10 +5397,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5423,10 +5408,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>72</v>
@@ -5438,13 +5423,13 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5495,13 +5480,13 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>72</v>
@@ -5515,10 +5500,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5526,10 +5511,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>72</v>
@@ -5541,13 +5526,13 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5574,11 +5559,13 @@
         <v>72</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>72</v>
@@ -5596,13 +5583,13 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>72</v>
@@ -5616,10 +5603,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5630,7 +5617,7 @@
         <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>72</v>
@@ -5642,13 +5629,13 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5699,13 +5686,13 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>72</v>
@@ -5719,10 +5706,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5733,7 +5720,7 @@
         <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>72</v>
@@ -5745,13 +5732,13 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -5802,19 +5789,19 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>72</v>
@@ -5822,10 +5809,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5836,7 +5823,7 @@
         <v>73</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>72</v>
@@ -5848,13 +5835,13 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5905,13 +5892,13 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>72</v>
@@ -5920,7 +5907,7 @@
         <v>72</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
@@ -5932,7 +5919,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -5951,15 +5938,17 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>72</v>
@@ -5996,19 +5985,19 @@
         <v>72</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -6020,50 +6009,54 @@
         <v>72</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>72</v>
       </c>
@@ -6111,41 +6104,41 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>72</v>
@@ -6157,17 +6150,15 @@
         <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>72</v>
@@ -6204,34 +6195,34 @@
         <v>72</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>96</v>
+        <v>237</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50">
@@ -6243,39 +6234,35 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>123</v>
+        <v>239</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>72</v>
       </c>
@@ -6323,30 +6310,30 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>127</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6357,7 +6344,7 @@
         <v>73</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>72</v>
@@ -6369,13 +6356,13 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6426,13 +6413,13 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>72</v>
@@ -6446,10 +6433,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6457,10 +6444,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>72</v>
@@ -6472,13 +6459,13 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6529,13 +6516,13 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>72</v>
@@ -6549,10 +6536,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6563,7 +6550,7 @@
         <v>73</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>72</v>
@@ -6575,13 +6562,13 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6638,7 +6625,7 @@
         <v>73</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>72</v>
@@ -6652,10 +6639,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6663,10 +6650,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>72</v>
@@ -6678,13 +6665,13 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6735,13 +6722,13 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>72</v>
@@ -6769,7 +6756,7 @@
         <v>73</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>72</v>
@@ -6781,7 +6768,7 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>252</v>
@@ -6844,7 +6831,7 @@
         <v>73</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>72</v>
@@ -6872,7 +6859,7 @@
         <v>73</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>72</v>
@@ -6884,7 +6871,7 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>254</v>
@@ -6947,7 +6934,7 @@
         <v>73</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>72</v>
@@ -6956,212 +6943,6 @@
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK58" t="s" s="2">
         <v>72</v>
       </c>
     </row>
